--- a/excel/Datas/0_GameGuide.xlsx
+++ b/excel/Datas/0_GameGuide.xlsx
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>step4</t>
+  </si>
+  <si>
+    <t>UIGuideTest2</t>
+  </si>
+  <si>
+    <t>step5</t>
   </si>
   <si>
     <t>手指相对目标节点偏移</t>
@@ -1345,15 +1351,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="7.375" style="8" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="8" customWidth="1"/>
@@ -1563,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
@@ -1593,10 +1599,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
         <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>10</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
@@ -1626,10 +1632,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
         <v>3</v>
-      </c>
-      <c r="D6" s="7">
-        <v>10</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
@@ -1659,10 +1665,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
         <v>4</v>
-      </c>
-      <c r="D7" s="7">
-        <v>10</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
@@ -1686,6 +1692,39 @@
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
+    </row>
+    <row r="8" s="8" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1777,7 +1816,7 @@
         <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:6">
@@ -1788,10 +1827,10 @@
         <v>201</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1805,10 +1844,10 @@
         <v>201</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F5">
         <v>1</v>

--- a/excel/Datas/0_GameGuide.xlsx
+++ b/excel/Datas/0_GameGuide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,74 @@
     <author>81360</author>
   </authors>
   <commentList>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>81360:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+不填表示手动触发引导步骤</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>81360:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+不填表示代码中手动指定目标节点
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>81360:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+手动触发引导步骤的挖空大小
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L3" authorId="0">
       <text>
         <r>
@@ -144,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -227,7 +295,7 @@
     <t>引导ID</t>
   </si>
   <si>
-    <t>StepIndex</t>
+    <t>步骤索引</t>
   </si>
   <si>
     <t>备注</t>
@@ -276,6 +344,9 @@
   </si>
   <si>
     <t>加载预制体</t>
+  </si>
+  <si>
+    <t>点击按钮1</t>
   </si>
   <si>
     <t>UIGuideTest1</t>
@@ -497,18 +568,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,6 +601,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,7 +932,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -879,16 +956,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -903,83 +980,83 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -997,6 +1074,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1353,10 +1433,10 @@
   <sheetPr/>
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1365,7 +1445,7 @@
     <col min="2" max="2" width="5.125" style="8" customWidth="1"/>
     <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
     <col min="4" max="4" width="10.375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="8" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="8" customWidth="1"/>
     <col min="7" max="7" width="47.75" style="8" customWidth="1"/>
     <col min="8" max="8" width="12.875" style="8" customWidth="1"/>
@@ -1471,7 +1551,7 @@
       <c r="K2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="5" t="s">
@@ -1533,7 +1613,7 @@
       <c r="K3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="11" t="s">
         <v>35</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -1568,15 +1648,17 @@
       <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7"/>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="F4" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1602,14 +1684,14 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1635,14 +1717,14 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1668,14 +1750,14 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1705,10 +1787,10 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1816,7 +1898,7 @@
         <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:6">
@@ -1827,10 +1909,10 @@
         <v>201</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1844,10 +1926,10 @@
         <v>201</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <v>1</v>

--- a/excel/Datas/0_GameGuide.xlsx
+++ b/excel/Datas/0_GameGuide.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
     <sheet name="UnforcedGuide" sheetId="2" r:id="rId2"/>
+    <sheet name="GuideOpenPlan" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +34,30 @@
     <author>81360</author>
   </authors>
   <commentList>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>81360:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+每一步的索引确定之后就不要再变动
+代码会根据步骤索引来判断是否做特殊处理
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F3" authorId="0">
       <text>
         <r>
@@ -212,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>##var</t>
   </si>
@@ -223,6 +248,9 @@
     <t>GuideID</t>
   </si>
   <si>
+    <t>StepIndex</t>
+  </si>
+  <si>
     <t>UIName</t>
   </si>
   <si>
@@ -346,7 +374,7 @@
     <t>加载预制体</t>
   </si>
   <si>
-    <t>点击按钮1</t>
+    <t>引导1</t>
   </si>
   <si>
     <t>UIGuideTest1</t>
@@ -383,25 +411,95 @@
   </si>
   <si>
     <t>home/btnGet</t>
+  </si>
+  <si>
+    <t>NeedPlayerLv</t>
+  </si>
+  <si>
+    <t>NeedBattleLv</t>
+  </si>
+  <si>
+    <t>NeedMainTask</t>
+  </si>
+  <si>
+    <t>等级要求</t>
+  </si>
+  <si>
+    <t>关卡要求</t>
+  </si>
+  <si>
+    <t>主线任务要求</t>
+  </si>
+  <si>
+    <t>解锁枪鸡兵线</t>
+  </si>
+  <si>
+    <t>抽取武器</t>
+  </si>
+  <si>
+    <t>解锁枪法鸡兵线</t>
+  </si>
+  <si>
+    <t>点击攻击boss</t>
+  </si>
+  <si>
+    <t>宠物系统</t>
+  </si>
+  <si>
+    <t>员工皮肤和魔窟</t>
+  </si>
+  <si>
+    <t>英雄皮肤和试炼1</t>
+  </si>
+  <si>
+    <t>试验2怪兽竞技场</t>
+  </si>
+  <si>
+    <t>试验3龙之挑战</t>
+  </si>
+  <si>
+    <t>试验4远古宝藏</t>
+  </si>
+  <si>
+    <t>研究所</t>
+  </si>
+  <si>
+    <t>挖矿，矿山科研所</t>
+  </si>
+  <si>
+    <t>迷宫</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-804]General"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -568,8 +666,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -578,8 +677,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -588,6 +692,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -595,12 +717,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,7 +1023,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -926,165 +1042,193 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
@@ -1134,6 +1278,7 @@
     <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1436,377 +1581,381 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="47.75" style="8" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="8" customWidth="1"/>
-    <col min="10" max="10" width="19.125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="8" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="8" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="10.375" style="8" customWidth="1"/>
-    <col min="17" max="17" width="17.125" style="8" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="8" customWidth="1"/>
-    <col min="19" max="19" width="12.875" style="8" customWidth="1"/>
-    <col min="20" max="20" width="10.875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="17" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="17" customWidth="1"/>
+    <col min="10" max="10" width="19.125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="17" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="17" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="17" customWidth="1"/>
+    <col min="14" max="14" width="10.375" style="17" customWidth="1"/>
+    <col min="15" max="15" width="17.125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="10.375" style="17" customWidth="1"/>
+    <col min="17" max="17" width="17.125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="12.125" style="17" customWidth="1"/>
+    <col min="19" max="19" width="12.875" style="17" customWidth="1"/>
+    <col min="20" max="20" width="10.875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:20">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:20">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="M1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="N1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="O1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="P1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="Q1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="R1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="S1" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:20">
-      <c r="A2" s="5" t="s">
+      <c r="T1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="2" s="11" customFormat="1" spans="1:20">
+      <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="B2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="C2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="D2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="J2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="R2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="S2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:20">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="3" s="10" customFormat="1" spans="1:20">
+      <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="L3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="M3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="N3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="O3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="P3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="Q3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="R3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="S3" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" s="8" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B4" s="7">
+      <c r="T3" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" s="17" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="16">
         <v>1</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="18">
         <v>0</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7">
+      <c r="G4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16">
         <v>1</v>
       </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-    </row>
-    <row r="5" s="8" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B5" s="7">
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+    </row>
+    <row r="5" s="17" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B5" s="16">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="16">
         <v>1</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16">
         <v>1</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" s="8" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B6" s="7">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+    </row>
+    <row r="6" s="17" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B6" s="16">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="16">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="16">
         <v>2</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16">
         <v>1</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" s="8" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B7" s="7">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+    </row>
+    <row r="7" s="17" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B7" s="16">
         <v>4</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="16">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="16">
         <v>3</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16">
         <v>1</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" s="8" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B8" s="7">
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+    </row>
+    <row r="8" s="17" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B8" s="16">
         <v>5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="16">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="16">
         <v>4</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7">
+      <c r="G8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16">
         <v>1</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1832,73 +1981,73 @@
     <col min="7" max="7" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:7">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="G1" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" s="11" customFormat="1" spans="1:7">
+      <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="D2" s="14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="E2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" s="10" customFormat="1" spans="1:7">
+      <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>52</v>
+      <c r="E3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:6">
@@ -1908,11 +2057,11 @@
       <c r="C4">
         <v>201</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>53</v>
+      <c r="D4" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1926,10 +2075,10 @@
         <v>201</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1940,4 +2089,267 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:6">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8">
+        <v>117</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="8">
+        <v>6</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:6">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8">
+        <v>118</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:6">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8">
+        <v>120</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="8">
+        <v>12</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:6">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8">
+        <v>133</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:6">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8">
+        <v>134</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="8">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:6">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8">
+        <v>135</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="8">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:6">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8">
+        <v>137</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="8">
+        <v>10</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:6">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8">
+        <v>140</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="8">
+        <v>12</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:6">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8">
+        <v>142</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="8">
+        <v>17</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:6">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8">
+        <v>143</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="8">
+        <v>23</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:6">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8">
+        <v>144</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="8">
+        <v>22</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:6">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8">
+        <v>145</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="8">
+        <v>15</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:6">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8">
+        <v>146</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="8">
+        <v>20</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excel/Datas/0_GameGuide.xlsx
+++ b/excel/Datas/0_GameGuide.xlsx
@@ -236,8 +236,40 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>81360</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>81360:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+功能开启表中的ID</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
   <si>
     <t>##var</t>
   </si>
@@ -413,22 +445,10 @@
     <t>home/btnGet</t>
   </si>
   <si>
-    <t>NeedPlayerLv</t>
-  </si>
-  <si>
-    <t>NeedBattleLv</t>
-  </si>
-  <si>
-    <t>NeedMainTask</t>
-  </si>
-  <si>
-    <t>等级要求</t>
-  </si>
-  <si>
-    <t>关卡要求</t>
-  </si>
-  <si>
-    <t>主线任务要求</t>
+    <t>FuncOpenID</t>
+  </si>
+  <si>
+    <t>功能开启ID</t>
   </si>
   <si>
     <t>解锁枪鸡兵线</t>
@@ -683,7 +703,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -699,12 +719,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,7 +1062,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1072,16 +1086,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1090,90 +1104,90 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1201,30 +1215,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1581,381 +1592,381 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="17" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="17" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="17" customWidth="1"/>
-    <col min="10" max="10" width="19.125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="17" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="17" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="17" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="17" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="17" customWidth="1"/>
-    <col min="16" max="16" width="10.375" style="17" customWidth="1"/>
-    <col min="17" max="17" width="17.125" style="17" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="17" customWidth="1"/>
-    <col min="19" max="19" width="12.875" style="17" customWidth="1"/>
-    <col min="20" max="20" width="10.875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="16" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="16" customWidth="1"/>
+    <col min="10" max="10" width="19.125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="16" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="16" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="16" customWidth="1"/>
+    <col min="14" max="14" width="10.375" style="16" customWidth="1"/>
+    <col min="15" max="15" width="17.125" style="16" customWidth="1"/>
+    <col min="16" max="16" width="10.375" style="16" customWidth="1"/>
+    <col min="17" max="17" width="17.125" style="16" customWidth="1"/>
+    <col min="18" max="18" width="12.125" style="16" customWidth="1"/>
+    <col min="19" max="19" width="12.875" style="16" customWidth="1"/>
+    <col min="20" max="20" width="10.875" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:20">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:20">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="11" customFormat="1" spans="1:20">
-      <c r="A2" s="14" t="s">
+    <row r="2" s="10" customFormat="1" spans="1:20">
+      <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" spans="1:20">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="9" customFormat="1" spans="1:20">
+      <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" s="17" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B4" s="16">
+    <row r="4" s="16" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>1</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>0</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15">
         <v>1</v>
       </c>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-    </row>
-    <row r="5" s="17" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B5" s="16">
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+    </row>
+    <row r="5" s="16" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B5" s="15">
         <v>2</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>1</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>1</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15">
         <v>1</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-    </row>
-    <row r="6" s="17" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B6" s="16">
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+    </row>
+    <row r="6" s="16" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B6" s="15">
         <v>3</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>1</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>2</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16">
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15">
         <v>1</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-    </row>
-    <row r="7" s="17" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B7" s="16">
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+    </row>
+    <row r="7" s="16" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B7" s="15">
         <v>4</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>1</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>3</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16">
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15">
         <v>1</v>
       </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-    </row>
-    <row r="8" s="17" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B8" s="16">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+    </row>
+    <row r="8" s="16" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B8" s="15">
         <v>5</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>1</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>4</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16">
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15">
         <v>1</v>
       </c>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1981,72 +1992,72 @@
     <col min="7" max="7" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:7">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:7">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="11" customFormat="1" spans="1:7">
-      <c r="A2" s="14" t="s">
+    <row r="2" s="10" customFormat="1" spans="1:7">
+      <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" spans="1:7">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="9" customFormat="1" spans="1:7">
+      <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2057,7 +2068,7 @@
       <c r="C4">
         <v>201</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E4" t="s">
@@ -2094,23 +2105,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="6.75" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:6">
+    <row r="1" ht="16.5" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -2121,14 +2130,8 @@
       <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:6">
+    </row>
+    <row r="2" ht="16.5" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2139,14 +2142,8 @@
       <c r="D2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:6">
+    </row>
+    <row r="3" ht="16.5" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -2157,199 +2154,168 @@
         <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
         <v>117</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D4" s="8">
         <v>6</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:6">
+    </row>
+    <row r="5" ht="16.5" spans="1:4">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>118</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" s="8">
         <v>3</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:6">
+    </row>
+    <row r="6" ht="16.5" spans="1:4">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>120</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D6" s="8">
         <v>12</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:6">
+    </row>
+    <row r="7" ht="16.5" spans="1:4">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
         <v>133</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:6">
+    </row>
+    <row r="8" ht="16.5" spans="1:4">
       <c r="A8" s="7"/>
       <c r="B8" s="8">
         <v>134</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D8" s="8">
         <v>8</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:6">
+    </row>
+    <row r="9" ht="16.5" spans="1:4">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>135</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D9" s="8">
         <v>4</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:6">
+    </row>
+    <row r="10" ht="16.5" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="8">
         <v>137</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D10" s="8">
         <v>10</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:6">
+    </row>
+    <row r="11" ht="16.5" spans="1:4">
       <c r="A11" s="7"/>
       <c r="B11" s="8">
         <v>140</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D11" s="8">
         <v>12</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:6">
+    </row>
+    <row r="12" ht="16.5" spans="1:4">
       <c r="A12" s="7"/>
       <c r="B12" s="8">
         <v>142</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D12" s="8">
         <v>17</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:6">
+    </row>
+    <row r="13" ht="16.5" spans="1:4">
       <c r="A13" s="7"/>
       <c r="B13" s="8">
         <v>143</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D13" s="8">
         <v>23</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:6">
+    </row>
+    <row r="14" ht="16.5" spans="1:4">
       <c r="A14" s="7"/>
       <c r="B14" s="8">
         <v>144</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D14" s="8">
         <v>22</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:6">
+    </row>
+    <row r="15" ht="16.5" spans="1:4">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>145</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D15" s="8">
         <v>15</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:6">
+    </row>
+    <row r="16" ht="16.5" spans="1:4">
       <c r="A16" s="7"/>
       <c r="B16" s="8">
         <v>146</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D16" s="8">
         <v>20</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/Datas/0_GameGuide.xlsx
+++ b/excel/Datas/0_GameGuide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
   <si>
     <t>##var</t>
   </si>
@@ -1225,13 +1225,13 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1589,7 +1589,7 @@
   <sheetPr/>
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
@@ -1597,26 +1597,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="16" customWidth="1"/>
-    <col min="10" max="10" width="19.125" style="16" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="16" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="16" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="16" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="16" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="16" customWidth="1"/>
-    <col min="16" max="16" width="10.375" style="16" customWidth="1"/>
-    <col min="17" max="17" width="17.125" style="16" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="16" customWidth="1"/>
-    <col min="19" max="19" width="12.875" style="16" customWidth="1"/>
-    <col min="20" max="20" width="10.875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="17" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="17" customWidth="1"/>
+    <col min="10" max="10" width="19.125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="17" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="17" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="17" customWidth="1"/>
+    <col min="14" max="14" width="10.375" style="17" customWidth="1"/>
+    <col min="15" max="15" width="17.125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="10.375" style="17" customWidth="1"/>
+    <col min="17" max="17" width="17.125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="12.125" style="17" customWidth="1"/>
+    <col min="19" max="19" width="12.875" style="17" customWidth="1"/>
+    <col min="20" max="20" width="10.875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="1" spans="1:20">
@@ -1801,172 +1801,172 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" s="16" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B4" s="15">
+    <row r="4" s="17" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="16">
         <v>1</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <v>0</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16">
         <v>1</v>
       </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-    </row>
-    <row r="5" s="16" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B5" s="15">
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+    </row>
+    <row r="5" s="17" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B5" s="16">
         <v>2</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="16">
         <v>1</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15">
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16">
         <v>1</v>
       </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-    </row>
-    <row r="6" s="16" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B6" s="15">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+    </row>
+    <row r="6" s="17" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B6" s="16">
         <v>3</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="16">
         <v>1</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="16">
         <v>2</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16">
         <v>1</v>
       </c>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-    </row>
-    <row r="7" s="16" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B7" s="15">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+    </row>
+    <row r="7" s="17" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B7" s="16">
         <v>4</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="16">
         <v>1</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="16">
         <v>3</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15">
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16">
         <v>1</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-    </row>
-    <row r="8" s="16" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B8" s="15">
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+    </row>
+    <row r="8" s="17" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B8" s="16">
         <v>5</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="16">
         <v>1</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="16">
         <v>4</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15">
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16">
         <v>1</v>
       </c>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1979,20 +1979,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="40.375" customWidth="1"/>
-    <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="40.375" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="21.25" customWidth="1"/>
+    <col min="9" max="9" width="40.375" customWidth="1"/>
+    <col min="11" max="11" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:7">
+    <row r="1" s="9" customFormat="1" spans="1:8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2003,19 +2007,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" spans="1:7">
+    <row r="2" s="10" customFormat="1" spans="1:8">
       <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
@@ -2026,19 +2033,22 @@
         <v>20</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:7">
+    <row r="3" s="9" customFormat="1" spans="1:8">
       <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
@@ -2049,49 +2059,58 @@
         <v>27</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="2:6">
+    <row r="4" customFormat="1" ht="14.25" spans="2:7">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
         <v>201</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>55</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" customFormat="1" ht="14.25" spans="2:7">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
         <v>201</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>56</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>57</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1</v>
       </c>
     </row>

--- a/excel/Datas/0_GameGuide.xlsx
+++ b/excel/Datas/0_GameGuide.xlsx
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
   <si>
     <t>##var</t>
   </si>
@@ -1979,24 +1979,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="40.375" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="21.25" customWidth="1"/>
+    <col min="7" max="8" width="21.25" customWidth="1"/>
     <col min="9" max="9" width="40.375" customWidth="1"/>
     <col min="11" max="11" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:8">
+    <row r="1" s="9" customFormat="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2016,13 +2015,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" spans="1:8">
+    <row r="2" s="10" customFormat="1" spans="1:7">
       <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
@@ -2042,13 +2038,10 @@
         <v>21</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:8">
+    <row r="3" s="9" customFormat="1" spans="1:7">
       <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
@@ -2068,13 +2061,10 @@
         <v>31</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="14.25" spans="2:7">
+    <row r="4" customFormat="1" ht="14.25" spans="2:6">
       <c r="B4">
         <v>1</v>
       </c>
@@ -2090,11 +2080,8 @@
       <c r="F4" t="s">
         <v>55</v>
       </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="14.25" spans="2:7">
+    </row>
+    <row r="5" customFormat="1" ht="14.25" spans="2:6">
       <c r="B5">
         <v>2</v>
       </c>
@@ -2109,9 +2096,6 @@
       </c>
       <c r="F5" t="s">
         <v>57</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Datas/0_GameGuide.xlsx
+++ b/excel/Datas/0_GameGuide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-每一步的索引确定之后就不要再变动
-代码会根据步骤索引来判断是否做特殊处理
-</t>
+每一步的key确定之后就不要再变动
+代码会根据步骤key来判断条件是否满足</t>
         </r>
       </text>
     </comment>
@@ -207,7 +206,7 @@
     <author>81360</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -225,10 +224,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1 上
-2 下
-3 左
-4 右</t>
+每一步的key确定之后就不要再变动
+代码会根据步骤key来判断条件是否满足</t>
         </r>
       </text>
     </comment>
@@ -269,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="79">
   <si>
     <t>##var</t>
   </si>
@@ -280,7 +277,7 @@
     <t>GuideID</t>
   </si>
   <si>
-    <t>StepIndex</t>
+    <t>StepKey</t>
   </si>
   <si>
     <t>UIName</t>
@@ -355,7 +352,7 @@
     <t>引导ID</t>
   </si>
   <si>
-    <t>步骤索引</t>
+    <t>步骤Key</t>
   </si>
   <si>
     <t>备注</t>
@@ -409,40 +406,58 @@
     <t>引导1</t>
   </si>
   <si>
-    <t>UIGuideTest1</t>
-  </si>
-  <si>
-    <t>step1</t>
-  </si>
-  <si>
-    <t>step2</t>
-  </si>
-  <si>
-    <t>step3</t>
-  </si>
-  <si>
-    <t>step4</t>
-  </si>
-  <si>
-    <t>UIGuideTest2</t>
-  </si>
-  <si>
-    <t>step5</t>
+    <t>UIHUD</t>
+  </si>
+  <si>
+    <t>home/Bottom/BtnLeaveHome</t>
+  </si>
+  <si>
+    <t>UICountryTown</t>
+  </si>
+  <si>
+    <t>home/btn/btnShop</t>
+  </si>
+  <si>
+    <t>UIShop</t>
+  </si>
+  <si>
+    <t>UIPopShopBuy</t>
+  </si>
+  <si>
+    <t>home/BtnBuy</t>
+  </si>
+  <si>
+    <t>home/Top/BtnClose</t>
+  </si>
+  <si>
+    <t>home/Bottom/BtnBackHome</t>
+  </si>
+  <si>
+    <t>home/Person/Daughter/$Bubble</t>
+  </si>
+  <si>
+    <t>UIInventory</t>
+  </si>
+  <si>
+    <t>/home/$InventorySelectInfo/$State/Commit/BtnCommit</t>
   </si>
   <si>
     <t>手指相对目标节点偏移</t>
   </si>
   <si>
-    <t>UIHUD</t>
-  </si>
-  <si>
-    <t>home/downHome/down/left/$MainTaskBtn</t>
-  </si>
-  <si>
-    <t>MainTasksWin</t>
-  </si>
-  <si>
-    <t>home/btnGet</t>
+    <t>0,90</t>
+  </si>
+  <si>
+    <t>home/Top/BtnPort</t>
+  </si>
+  <si>
+    <t>UIPort</t>
+  </si>
+  <si>
+    <t>home/Merchant/1</t>
+  </si>
+  <si>
+    <t>0,300</t>
   </si>
   <si>
     <t>FuncOpenID</t>
@@ -1187,7 +1202,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1217,6 +1232,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1225,13 +1241,15 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1587,386 +1605,514 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="17" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="17" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="17" customWidth="1"/>
-    <col min="10" max="10" width="19.125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="17" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="17" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="17" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="17" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="17" customWidth="1"/>
-    <col min="16" max="16" width="10.375" style="17" customWidth="1"/>
-    <col min="17" max="17" width="17.125" style="17" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="17" customWidth="1"/>
-    <col min="19" max="19" width="12.875" style="17" customWidth="1"/>
-    <col min="20" max="20" width="10.875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="45" style="11" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="11" customWidth="1"/>
+    <col min="10" max="10" width="19.125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="11" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="10.375" style="11" customWidth="1"/>
+    <col min="15" max="15" width="17.125" style="11" customWidth="1"/>
+    <col min="16" max="16" width="10.375" style="11" customWidth="1"/>
+    <col min="17" max="17" width="17.125" style="11" customWidth="1"/>
+    <col min="18" max="18" width="12.125" style="11" customWidth="1"/>
+    <col min="19" max="19" width="12.875" style="11" customWidth="1"/>
+    <col min="20" max="20" width="10.875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="1" spans="1:20">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" s="10" customFormat="1" spans="1:20">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" spans="1:20">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" s="17" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B4" s="16">
+    <row r="4" s="11" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="18">
+        <v>101</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18">
         <v>1</v>
       </c>
-      <c r="D4" s="15">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+    </row>
+    <row r="5" s="11" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B5" s="18">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18">
+        <v>101</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+    </row>
+    <row r="6" s="11" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B6" s="18">
+        <v>3</v>
+      </c>
+      <c r="C6" s="18">
+        <v>101</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+    </row>
+    <row r="7" s="11" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B7" s="18">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18">
+        <v>101</v>
+      </c>
+      <c r="D7" s="18">
+        <v>3</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+    </row>
+    <row r="8" s="11" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B8" s="18">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18">
+        <v>101</v>
+      </c>
+      <c r="D8" s="18">
+        <v>4</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+    </row>
+    <row r="9" s="11" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B9" s="18">
+        <v>6</v>
+      </c>
+      <c r="C9" s="18">
+        <v>101</v>
+      </c>
+      <c r="D9" s="18">
+        <v>5</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+    </row>
+    <row r="10" s="11" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B10" s="18">
+        <v>7</v>
+      </c>
+      <c r="C10" s="18">
+        <v>101</v>
+      </c>
+      <c r="D10" s="18">
+        <v>6</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16">
+      <c r="G10" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18">
         <v>1</v>
       </c>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-    </row>
-    <row r="5" s="17" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B5" s="16">
-        <v>2</v>
-      </c>
-      <c r="C5" s="16">
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+    </row>
+    <row r="11" s="11" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B11" s="18">
+        <v>8</v>
+      </c>
+      <c r="C11" s="18">
+        <v>101</v>
+      </c>
+      <c r="D11" s="18">
+        <v>7</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18">
         <v>1</v>
       </c>
-      <c r="D5" s="16">
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+    </row>
+    <row r="12" s="11" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B12" s="18">
+        <v>9</v>
+      </c>
+      <c r="C12" s="18">
+        <v>101</v>
+      </c>
+      <c r="D12" s="18">
+        <v>8</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18">
         <v>1</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-    </row>
-    <row r="6" s="17" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B6" s="16">
-        <v>3</v>
-      </c>
-      <c r="C6" s="16">
-        <v>1</v>
-      </c>
-      <c r="D6" s="16">
-        <v>2</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-    </row>
-    <row r="7" s="17" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B7" s="16">
-        <v>4</v>
-      </c>
-      <c r="C7" s="16">
-        <v>1</v>
-      </c>
-      <c r="D7" s="16">
-        <v>3</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-    </row>
-    <row r="8" s="17" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B8" s="16">
-        <v>5</v>
-      </c>
-      <c r="C8" s="16">
-        <v>1</v>
-      </c>
-      <c r="D8" s="16">
-        <v>4</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1979,123 +2125,297 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="40.375" customWidth="1"/>
-    <col min="7" max="8" width="21.25" customWidth="1"/>
-    <col min="9" max="9" width="40.375" customWidth="1"/>
-    <col min="11" max="11" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="40.375" customWidth="1"/>
+    <col min="8" max="8" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:8">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" spans="1:7">
-      <c r="A2" s="13" t="s">
+    <row r="2" s="10" customFormat="1" spans="1:8">
+      <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:7">
-      <c r="A3" s="11" t="s">
+    <row r="3" s="9" customFormat="1" spans="1:8">
+      <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:8">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1001</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:8">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1001</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:8">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1001</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:8">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1001</v>
+      </c>
+      <c r="D7" s="18">
+        <v>3</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:8">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16">
+        <v>1001</v>
+      </c>
+      <c r="D8" s="18">
+        <v>4</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" customFormat="1" ht="14.25" spans="2:6">
-      <c r="B4">
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:8">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16">
+        <v>1001</v>
+      </c>
+      <c r="D9" s="18">
+        <v>5</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:8">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16">
+        <v>7</v>
+      </c>
+      <c r="C10" s="16">
+        <v>1001</v>
+      </c>
+      <c r="D10" s="18">
+        <v>6</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:8">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16">
+        <v>8</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1002</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:8">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16">
+        <v>9</v>
+      </c>
+      <c r="C12" s="16">
+        <v>1002</v>
+      </c>
+      <c r="D12" s="18">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>201</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="14.25" spans="2:6">
-      <c r="B5">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:8">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16">
+        <v>10</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1002</v>
+      </c>
+      <c r="D13" s="18">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>201</v>
-      </c>
-      <c r="D5" s="16">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" t="s">
-        <v>57</v>
+      <c r="E13" s="11"/>
+      <c r="F13" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2143,7 +2463,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
@@ -2157,7 +2477,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:4">
@@ -2166,7 +2486,7 @@
         <v>117</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D4" s="8">
         <v>6</v>
@@ -2178,7 +2498,7 @@
         <v>118</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D5" s="8">
         <v>3</v>
@@ -2190,7 +2510,7 @@
         <v>120</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D6" s="8">
         <v>12</v>
@@ -2202,7 +2522,7 @@
         <v>133</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
@@ -2214,7 +2534,7 @@
         <v>134</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D8" s="8">
         <v>8</v>
@@ -2226,7 +2546,7 @@
         <v>135</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D9" s="8">
         <v>4</v>
@@ -2238,7 +2558,7 @@
         <v>137</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D10" s="8">
         <v>10</v>
@@ -2250,7 +2570,7 @@
         <v>140</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D11" s="8">
         <v>12</v>
@@ -2262,7 +2582,7 @@
         <v>142</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D12" s="8">
         <v>17</v>
@@ -2274,7 +2594,7 @@
         <v>143</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D13" s="8">
         <v>23</v>
@@ -2286,7 +2606,7 @@
         <v>144</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D14" s="8">
         <v>22</v>
@@ -2298,7 +2618,7 @@
         <v>145</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D15" s="8">
         <v>15</v>
@@ -2310,7 +2630,7 @@
         <v>146</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D16" s="8">
         <v>20</v>

--- a/excel/Datas/0_GameGuide.xlsx
+++ b/excel/Datas/0_GameGuide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="95">
   <si>
     <t>##var</t>
   </si>
@@ -403,6 +403,66 @@
     <t>加载预制体</t>
   </si>
   <si>
+    <t>引导推币</t>
+  </si>
+  <si>
+    <t>UICountryTown</t>
+  </si>
+  <si>
+    <t>home/btn/btnGuWan</t>
+  </si>
+  <si>
+    <t>UITuiBi</t>
+  </si>
+  <si>
+    <t>home/$Content/$CubesParent/CubesEntity</t>
+  </si>
+  <si>
+    <t>点击选择</t>
+  </si>
+  <si>
+    <t>-200;-180</t>
+  </si>
+  <si>
+    <t>相同硬币放在一起</t>
+  </si>
+  <si>
+    <t>60;-180</t>
+  </si>
+  <si>
+    <t>home/Bottom/$BtnMerge</t>
+  </si>
+  <si>
+    <t>10个相同的硬币可以兑换成下一等级</t>
+  </si>
+  <si>
+    <t>140;-420</t>
+  </si>
+  <si>
+    <t>home/Bottom/BtnAdd</t>
+  </si>
+  <si>
+    <t>获得更多硬币</t>
+  </si>
+  <si>
+    <t>-140;-420</t>
+  </si>
+  <si>
+    <t>继续合成</t>
+  </si>
+  <si>
+    <t>home/$Content/Guide102_9</t>
+  </si>
+  <si>
+    <t>兑换的收益会随着关卡提高</t>
+  </si>
+  <si>
+    <t>0;400</t>
+  </si>
+  <si>
+    <t>手指相对目标节点偏移</t>
+  </si>
+  <si>
     <t>引导1</t>
   </si>
   <si>
@@ -412,9 +472,6 @@
     <t>home/Bottom/BtnLeaveHome</t>
   </si>
   <si>
-    <t>UICountryTown</t>
-  </si>
-  <si>
     <t>home/btn/btnShop</t>
   </si>
   <si>
@@ -434,15 +491,6 @@
   </si>
   <si>
     <t>home/Person/Daughter/$Bubble</t>
-  </si>
-  <si>
-    <t>UIInventory</t>
-  </si>
-  <si>
-    <t>/home/$InventorySelectInfo/$State/Commit/BtnCommit</t>
-  </si>
-  <si>
-    <t>手指相对目标节点偏移</t>
   </si>
   <si>
     <t>0,90</t>
@@ -1254,6 +1302,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1607,10 +1658,10 @@
   <sheetPr/>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1621,7 +1672,7 @@
     <col min="4" max="4" width="10.375" style="11" customWidth="1"/>
     <col min="5" max="5" width="8.25" style="11" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="45" style="11" customWidth="1"/>
+    <col min="7" max="7" width="34.75" style="11" customWidth="1"/>
     <col min="8" max="8" width="12.875" style="11" customWidth="1"/>
     <col min="9" max="9" width="13.75" style="11" customWidth="1"/>
     <col min="10" max="10" width="19.125" style="11" customWidth="1"/>
@@ -1632,7 +1683,7 @@
     <col min="15" max="15" width="17.125" style="11" customWidth="1"/>
     <col min="16" max="16" width="10.375" style="11" customWidth="1"/>
     <col min="17" max="17" width="17.125" style="11" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="11" customWidth="1"/>
+    <col min="18" max="18" width="25.75" style="11" customWidth="1"/>
     <col min="19" max="19" width="12.875" style="11" customWidth="1"/>
     <col min="20" max="20" width="10.875" style="11" customWidth="1"/>
   </cols>
@@ -1824,10 +1875,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="18">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D4" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>45</v>
@@ -1846,11 +1897,10 @@
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
-      <c r="P4" s="18">
+      <c r="P4" s="11">
         <v>1</v>
       </c>
       <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
     </row>
@@ -1859,10 +1909,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="18">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D5" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
@@ -1872,19 +1922,25 @@
         <v>49</v>
       </c>
       <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="I5" s="18">
+        <v>0.25</v>
+      </c>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
-      <c r="P5" s="18">
+      <c r="P5" s="11">
         <v>1</v>
       </c>
       <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
+      <c r="R5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="T5" s="18"/>
     </row>
     <row r="6" s="11" customFormat="1" ht="14.25" spans="2:20">
@@ -1892,30 +1948,36 @@
         <v>3</v>
       </c>
       <c r="C6" s="18">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="I6" s="18">
+        <v>0.25</v>
+      </c>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
-      <c r="P6" s="18">
+      <c r="P6" s="11">
         <v>1</v>
       </c>
       <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
+      <c r="R6" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="T6" s="18"/>
     </row>
     <row r="7" s="11" customFormat="1" ht="14.25" spans="2:20">
@@ -1923,32 +1985,38 @@
         <v>4</v>
       </c>
       <c r="C7" s="18">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D7" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="18">
+        <v>0.25</v>
+      </c>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
-      <c r="P7" s="18">
+      <c r="P7" s="11">
         <v>1</v>
       </c>
       <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
+      <c r="R7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="T7" s="18"/>
     </row>
     <row r="8" s="11" customFormat="1" ht="14.25" spans="2:20">
@@ -1956,32 +2024,38 @@
         <v>5</v>
       </c>
       <c r="C8" s="18">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D8" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18">
+        <v>0.25</v>
+      </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
-      <c r="P8" s="18">
+      <c r="P8" s="11">
         <v>1</v>
       </c>
       <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
+      <c r="R8" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="T8" s="18"/>
     </row>
     <row r="9" s="11" customFormat="1" ht="14.25" spans="2:20">
@@ -1989,32 +2063,38 @@
         <v>6</v>
       </c>
       <c r="C9" s="18">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D9" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="I9" s="18">
+        <v>0.25</v>
+      </c>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
-      <c r="P9" s="18">
+      <c r="P9" s="11">
         <v>1</v>
       </c>
       <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
+      <c r="R9" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="T9" s="18"/>
     </row>
     <row r="10" s="11" customFormat="1" ht="14.25" spans="2:20">
@@ -2022,27 +2102,27 @@
         <v>7</v>
       </c>
       <c r="C10" s="18">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D10" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>55</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="I10" s="18">
+        <v>0.25</v>
+      </c>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
-      <c r="P10" s="18">
+      <c r="P10" s="11">
         <v>1</v>
       </c>
       <c r="Q10" s="18"/>
@@ -2055,25 +2135,29 @@
         <v>8</v>
       </c>
       <c r="C11" s="18">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D11" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>54</v>
+      </c>
       <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="I11" s="18">
+        <v>0.25</v>
+      </c>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
-      <c r="P11" s="18">
+      <c r="P11" s="11">
         <v>1</v>
       </c>
       <c r="Q11" s="18"/>
@@ -2086,32 +2170,40 @@
         <v>9</v>
       </c>
       <c r="C12" s="18">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D12" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="18">
+        <v>0.25</v>
+      </c>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+      <c r="L12" s="18">
+        <v>1</v>
+      </c>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
-      <c r="P12" s="18">
+      <c r="P12" s="11">
         <v>1</v>
       </c>
       <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
+      <c r="R12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="T12" s="18"/>
     </row>
   </sheetData>
@@ -2125,10 +2217,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2211,7 +2303,7 @@
         <v>31</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:8">
@@ -2226,13 +2318,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H4" s="16"/>
     </row>
@@ -2249,10 +2341,10 @@
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="H5" s="16"/>
     </row>
@@ -2269,7 +2361,7 @@
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="16"/>
@@ -2287,10 +2379,10 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="H7" s="16"/>
     </row>
@@ -2307,10 +2399,10 @@
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H8" s="16"/>
     </row>
@@ -2327,10 +2419,10 @@
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="H9" s="16"/>
     </row>
@@ -2347,16 +2439,16 @@
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" ht="13" customHeight="1" spans="1:8">
       <c r="A11" s="16"/>
       <c r="B11" s="16">
         <v>8</v>
@@ -2369,10 +2461,10 @@
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H11" s="16"/>
     </row>
@@ -2389,10 +2481,10 @@
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H12" s="16"/>
     </row>
@@ -2407,17 +2499,37 @@
       <c r="D13" s="18">
         <v>2</v>
       </c>
-      <c r="E13" s="11"/>
       <c r="F13" s="18" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" ht="13" customHeight="1" spans="1:8">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16">
+        <v>11</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1003</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2430,8 +2542,8 @@
   <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2463,7 +2575,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
@@ -2477,7 +2589,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:4">
@@ -2486,7 +2598,7 @@
         <v>117</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8">
         <v>6</v>
@@ -2498,7 +2610,7 @@
         <v>118</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D5" s="8">
         <v>3</v>
@@ -2510,7 +2622,7 @@
         <v>120</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D6" s="8">
         <v>12</v>
@@ -2522,7 +2634,7 @@
         <v>133</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
@@ -2534,7 +2646,7 @@
         <v>134</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D8" s="8">
         <v>8</v>
@@ -2546,7 +2658,7 @@
         <v>135</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D9" s="8">
         <v>4</v>
@@ -2558,7 +2670,7 @@
         <v>137</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D10" s="8">
         <v>10</v>
@@ -2570,7 +2682,7 @@
         <v>140</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D11" s="8">
         <v>12</v>
@@ -2582,7 +2694,7 @@
         <v>142</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D12" s="8">
         <v>17</v>
@@ -2594,7 +2706,7 @@
         <v>143</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D13" s="8">
         <v>23</v>
@@ -2606,7 +2718,7 @@
         <v>144</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D14" s="8">
         <v>22</v>
@@ -2618,7 +2730,7 @@
         <v>145</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D15" s="8">
         <v>15</v>
@@ -2630,7 +2742,7 @@
         <v>146</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D16" s="8">
         <v>20</v>

--- a/excel/Datas/0_GameGuide.xlsx
+++ b/excel/Datas/0_GameGuide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
@@ -52,8 +52,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-每一步的key确定之后就不要再变动
-代码会根据步骤key来判断条件是否满足</t>
+每一步的id确定之后就不要再变动
+代码会根据步骤id来判断条件是否满足</t>
         </r>
       </text>
     </comment>
@@ -224,8 +224,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-每一步的key确定之后就不要再变动
-代码会根据步骤key来判断条件是否满足</t>
+每一步的id确定之后就不要再变动
+代码会根据步骤id来判断条件是否满足</t>
         </r>
       </text>
     </comment>
@@ -277,7 +277,7 @@
     <t>GuideID</t>
   </si>
   <si>
-    <t>StepKey</t>
+    <t>StepId</t>
   </si>
   <si>
     <t>UIName</t>
@@ -352,7 +352,7 @@
     <t>引导ID</t>
   </si>
   <si>
-    <t>步骤Key</t>
+    <t>步骤id</t>
   </si>
   <si>
     <t>备注</t>
@@ -1658,10 +1658,10 @@
   <sheetPr/>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2219,8 +2219,8 @@
   <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/excel/Datas/0_GameGuide.xlsx
+++ b/excel/Datas/0_GameGuide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
@@ -334,7 +334,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>vector2</t>
+    <t>vector2?</t>
   </si>
   <si>
     <t>float</t>
@@ -493,7 +493,7 @@
     <t>home/Person/Daughter/$Bubble</t>
   </si>
   <si>
-    <t>0,90</t>
+    <t>0;90</t>
   </si>
   <si>
     <t>home/Top/BtnPort</t>
@@ -505,7 +505,7 @@
     <t>home/Merchant/1</t>
   </si>
   <si>
-    <t>0,300</t>
+    <t>0;300</t>
   </si>
   <si>
     <t>FuncOpenID</t>
@@ -1658,34 +1658,34 @@
   <sheetPr/>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="34.75" style="11" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="11" customWidth="1"/>
-    <col min="10" max="10" width="19.125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="11" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="11" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="11" customWidth="1"/>
-    <col min="16" max="16" width="10.375" style="11" customWidth="1"/>
-    <col min="17" max="17" width="17.125" style="11" customWidth="1"/>
-    <col min="18" max="18" width="25.75" style="11" customWidth="1"/>
-    <col min="19" max="19" width="12.875" style="11" customWidth="1"/>
-    <col min="20" max="20" width="10.875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.3716814159292" style="11" customWidth="1"/>
+    <col min="2" max="2" width="5.12389380530973" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.3716814159292" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10.3716814159292" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.24778761061947" style="11" customWidth="1"/>
+    <col min="6" max="6" width="15.1238938053097" style="11" customWidth="1"/>
+    <col min="7" max="7" width="34.7522123893805" style="11" customWidth="1"/>
+    <col min="8" max="8" width="12.8761061946903" style="11" customWidth="1"/>
+    <col min="9" max="9" width="13.7522123893805" style="11" customWidth="1"/>
+    <col min="10" max="10" width="19.1238938053097" style="11" customWidth="1"/>
+    <col min="11" max="11" width="10.8761061946903" style="11" customWidth="1"/>
+    <col min="12" max="12" width="11.5044247787611" style="11" customWidth="1"/>
+    <col min="13" max="13" width="12.6283185840708" style="11" customWidth="1"/>
+    <col min="14" max="14" width="10.3716814159292" style="11" customWidth="1"/>
+    <col min="15" max="15" width="17.1238938053097" style="11" customWidth="1"/>
+    <col min="16" max="16" width="10.3716814159292" style="11" customWidth="1"/>
+    <col min="17" max="17" width="17.1238938053097" style="11" customWidth="1"/>
+    <col min="18" max="18" width="25.7522123893805" style="11" customWidth="1"/>
+    <col min="19" max="19" width="12.8761061946903" style="11" customWidth="1"/>
+    <col min="20" max="20" width="10.8761061946903" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="1" spans="1:20">
@@ -1870,7 +1870,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="1" ht="14.25" spans="2:20">
+    <row r="4" s="11" customFormat="1" spans="2:20">
       <c r="B4" s="18">
         <v>1</v>
       </c>
@@ -1904,7 +1904,7 @@
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
     </row>
-    <row r="5" s="11" customFormat="1" ht="14.25" spans="2:20">
+    <row r="5" s="11" customFormat="1" spans="2:20">
       <c r="B5" s="18">
         <v>2</v>
       </c>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="T5" s="18"/>
     </row>
-    <row r="6" s="11" customFormat="1" ht="14.25" spans="2:20">
+    <row r="6" s="11" customFormat="1" spans="2:20">
       <c r="B6" s="18">
         <v>3</v>
       </c>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="T6" s="18"/>
     </row>
-    <row r="7" s="11" customFormat="1" ht="14.25" spans="2:20">
+    <row r="7" s="11" customFormat="1" spans="2:20">
       <c r="B7" s="18">
         <v>4</v>
       </c>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="T7" s="18"/>
     </row>
-    <row r="8" s="11" customFormat="1" ht="14.25" spans="2:20">
+    <row r="8" s="11" customFormat="1" spans="2:20">
       <c r="B8" s="18">
         <v>5</v>
       </c>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="T8" s="18"/>
     </row>
-    <row r="9" s="11" customFormat="1" ht="14.25" spans="2:20">
+    <row r="9" s="11" customFormat="1" spans="2:20">
       <c r="B9" s="18">
         <v>6</v>
       </c>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="T9" s="18"/>
     </row>
-    <row r="10" s="11" customFormat="1" ht="14.25" spans="2:20">
+    <row r="10" s="11" customFormat="1" spans="2:20">
       <c r="B10" s="18">
         <v>7</v>
       </c>
@@ -2130,7 +2130,7 @@
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
     </row>
-    <row r="11" s="11" customFormat="1" ht="14.25" spans="2:20">
+    <row r="11" s="11" customFormat="1" spans="2:20">
       <c r="B11" s="18">
         <v>8</v>
       </c>
@@ -2165,7 +2165,7 @@
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" s="11" customFormat="1" ht="14.25" spans="2:20">
+    <row r="12" s="11" customFormat="1" spans="2:20">
       <c r="B12" s="18">
         <v>9</v>
       </c>
@@ -2219,17 +2219,17 @@
   <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="10.375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="40.375" customWidth="1"/>
-    <col min="8" max="8" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="10.3716814159292" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.24778761061947" style="11" customWidth="1"/>
+    <col min="6" max="6" width="15.1238938053097" customWidth="1"/>
+    <col min="7" max="7" width="40.3716814159292" customWidth="1"/>
+    <col min="8" max="8" width="21.2477876106195" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="1" spans="1:8">
@@ -2306,7 +2306,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:8">
+    <row r="4" spans="1:8">
       <c r="A4" s="16"/>
       <c r="B4" s="16">
         <v>1</v>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" ht="14.25" spans="1:8">
+    <row r="5" spans="1:8">
       <c r="A5" s="16"/>
       <c r="B5" s="16">
         <v>2</v>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" ht="14.25" spans="1:8">
+    <row r="6" spans="1:8">
       <c r="A6" s="16"/>
       <c r="B6" s="16">
         <v>3</v>
@@ -2366,7 +2366,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" ht="14.25" spans="1:8">
+    <row r="7" spans="1:8">
       <c r="A7" s="16"/>
       <c r="B7" s="16">
         <v>4</v>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" ht="14.25" spans="1:8">
+    <row r="8" spans="1:8">
       <c r="A8" s="16"/>
       <c r="B8" s="16">
         <v>5</v>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" ht="14.25" spans="1:8">
+    <row r="9" spans="1:8">
       <c r="A9" s="16"/>
       <c r="B9" s="16">
         <v>6</v>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" ht="14.25" spans="1:8">
+    <row r="10" spans="1:8">
       <c r="A10" s="16"/>
       <c r="B10" s="16">
         <v>7</v>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" ht="14.25" spans="1:8">
+    <row r="12" spans="1:8">
       <c r="A12" s="16"/>
       <c r="B12" s="16">
         <v>9</v>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" ht="14.25" spans="1:8">
+    <row r="13" spans="1:8">
       <c r="A13" s="16"/>
       <c r="B13" s="16">
         <v>10</v>
@@ -2542,19 +2542,19 @@
   <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="6.75" customWidth="1"/>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="6.75221238938053" customWidth="1"/>
+    <col min="2" max="2" width="6.3716814159292" customWidth="1"/>
+    <col min="3" max="3" width="17.1238938053097" customWidth="1"/>
+    <col min="4" max="4" width="12.1238938053097" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:4">
+    <row r="1" ht="13.85" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:4">
+    <row r="2" ht="13.85" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:4">
+    <row r="3" ht="13.85" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:4">
+    <row r="4" ht="15" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
         <v>117</v>
@@ -2604,7 +2604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:4">
+    <row r="5" ht="15" spans="1:4">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:4">
+    <row r="6" ht="15" spans="1:4">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>120</v>
@@ -2628,7 +2628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:4">
+    <row r="7" ht="15" spans="1:4">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
         <v>133</v>
@@ -2640,7 +2640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:4">
+    <row r="8" ht="15" spans="1:4">
       <c r="A8" s="7"/>
       <c r="B8" s="8">
         <v>134</v>
@@ -2652,7 +2652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:4">
+    <row r="9" ht="15" spans="1:4">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>135</v>
@@ -2664,7 +2664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:4">
+    <row r="10" ht="15" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="8">
         <v>137</v>
@@ -2676,7 +2676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:4">
+    <row r="11" ht="15" spans="1:4">
       <c r="A11" s="7"/>
       <c r="B11" s="8">
         <v>140</v>
@@ -2688,7 +2688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:4">
+    <row r="12" ht="15" spans="1:4">
       <c r="A12" s="7"/>
       <c r="B12" s="8">
         <v>142</v>
@@ -2700,7 +2700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:4">
+    <row r="13" ht="15" spans="1:4">
       <c r="A13" s="7"/>
       <c r="B13" s="8">
         <v>143</v>
@@ -2712,7 +2712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:4">
+    <row r="14" ht="15" spans="1:4">
       <c r="A14" s="7"/>
       <c r="B14" s="8">
         <v>144</v>
@@ -2724,7 +2724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:4">
+    <row r="15" ht="15" spans="1:4">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>145</v>
@@ -2736,7 +2736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:4">
+    <row r="16" ht="15" spans="1:4">
       <c r="A16" s="7"/>
       <c r="B16" s="8">
         <v>146</v>

--- a/excel/Datas/0_GameGuide.xlsx
+++ b/excel/Datas/0_GameGuide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
@@ -97,8 +97,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-不填表示代码中手动指定目标节点
-</t>
+x表示代码中手动指定目标节点
+不填表示不需要挖孔</t>
         </r>
       </text>
     </comment>
@@ -167,6 +167,7 @@
           </rPr>
           <t xml:space="preserve">
 默认没有手指
+0：隐藏
 1：上
 2：下
 3：左
@@ -266,7 +267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="96">
   <si>
     <t>##var</t>
   </si>
@@ -289,12 +290,12 @@
     <t>NodeSize</t>
   </si>
   <si>
+    <t>ClickScreen</t>
+  </si>
+  <si>
     <t>DelayCheckUI</t>
   </si>
   <si>
-    <t>ClickScreen</t>
-  </si>
-  <si>
     <t>Opacity</t>
   </si>
   <si>
@@ -337,12 +338,12 @@
     <t>vector2?</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
@@ -367,12 +368,12 @@
     <t>指定尺寸</t>
   </si>
   <si>
+    <t>点击屏幕即完成引导</t>
+  </si>
+  <si>
     <t>延迟检测</t>
   </si>
   <si>
-    <t>点击屏幕即完成引导</t>
-  </si>
-  <si>
     <t>遮罩透明度</t>
   </si>
   <si>
@@ -422,6 +423,9 @@
   </si>
   <si>
     <t>-200;-180</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>相同硬币放在一起</t>
@@ -1250,7 +1254,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1304,6 +1308,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1658,34 +1663,34 @@
   <sheetPr/>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.3716814159292" style="11" customWidth="1"/>
-    <col min="2" max="2" width="5.12389380530973" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.3716814159292" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10.3716814159292" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.24778761061947" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15.1238938053097" style="11" customWidth="1"/>
-    <col min="7" max="7" width="34.7522123893805" style="11" customWidth="1"/>
-    <col min="8" max="8" width="12.8761061946903" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13.7522123893805" style="11" customWidth="1"/>
-    <col min="10" max="10" width="19.1238938053097" style="11" customWidth="1"/>
-    <col min="11" max="11" width="10.8761061946903" style="11" customWidth="1"/>
-    <col min="12" max="12" width="11.5044247787611" style="11" customWidth="1"/>
-    <col min="13" max="13" width="12.6283185840708" style="11" customWidth="1"/>
-    <col min="14" max="14" width="10.3716814159292" style="11" customWidth="1"/>
-    <col min="15" max="15" width="17.1238938053097" style="11" customWidth="1"/>
-    <col min="16" max="16" width="10.3716814159292" style="11" customWidth="1"/>
-    <col min="17" max="17" width="17.1238938053097" style="11" customWidth="1"/>
-    <col min="18" max="18" width="25.7522123893805" style="11" customWidth="1"/>
-    <col min="19" max="19" width="12.8761061946903" style="11" customWidth="1"/>
-    <col min="20" max="20" width="10.8761061946903" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="34.75" style="11" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="19.125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="11" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="11.5083333333333" style="11" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="10.375" style="11" customWidth="1"/>
+    <col min="15" max="15" width="17.125" style="11" customWidth="1"/>
+    <col min="16" max="16" width="10.375" style="11" customWidth="1"/>
+    <col min="17" max="17" width="17.125" style="11" customWidth="1"/>
+    <col min="18" max="18" width="25.75" style="11" customWidth="1"/>
+    <col min="19" max="19" width="12.875" style="11" customWidth="1"/>
+    <col min="20" max="20" width="10.875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="1" spans="1:20">
@@ -1784,10 +1789,10 @@
         <v>20</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>22</v>
@@ -1870,7 +1875,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="1" spans="2:20">
+    <row r="4" s="11" customFormat="1" ht="14.25" spans="2:20">
       <c r="B4" s="18">
         <v>1</v>
       </c>
@@ -1897,14 +1902,14 @@
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
-      <c r="P4" s="11">
+      <c r="P4" s="21">
         <v>1</v>
       </c>
       <c r="Q4" s="18"/>
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
     </row>
-    <row r="5" s="11" customFormat="1" spans="2:20">
+    <row r="5" s="11" customFormat="1" ht="14.25" spans="2:20">
       <c r="B5" s="18">
         <v>2</v>
       </c>
@@ -1922,28 +1927,28 @@
         <v>49</v>
       </c>
       <c r="H5" s="18"/>
-      <c r="I5" s="18">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18">
         <v>0.25</v>
       </c>
-      <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
-      <c r="P5" s="11">
+      <c r="P5" s="21">
         <v>1</v>
       </c>
       <c r="Q5" s="18"/>
       <c r="R5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="21" t="s">
+      <c r="S5" s="22" t="s">
         <v>51</v>
       </c>
       <c r="T5" s="18"/>
     </row>
-    <row r="6" s="11" customFormat="1" spans="2:20">
+    <row r="6" s="11" customFormat="1" ht="14.25" spans="2:20">
       <c r="B6" s="18">
         <v>3</v>
       </c>
@@ -1957,30 +1962,32 @@
       <c r="F6" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="18" t="s">
+        <v>52</v>
+      </c>
       <c r="H6" s="18"/>
-      <c r="I6" s="18">
+      <c r="I6" s="18"/>
+      <c r="J6" s="18">
         <v>0.25</v>
       </c>
-      <c r="J6" s="18"/>
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
-      <c r="P6" s="11">
+      <c r="P6" s="21">
         <v>1</v>
       </c>
       <c r="Q6" s="18"/>
       <c r="R6" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="S6" s="21" t="s">
         <v>53</v>
       </c>
+      <c r="S6" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="T6" s="18"/>
     </row>
-    <row r="7" s="11" customFormat="1" spans="2:20">
+    <row r="7" s="11" customFormat="1" ht="14.25" spans="2:20">
       <c r="B7" s="18">
         <v>4</v>
       </c>
@@ -1995,31 +2002,31 @@
         <v>48</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="18">
+      <c r="I7" s="18"/>
+      <c r="J7" s="18">
         <v>0.25</v>
       </c>
-      <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
-      <c r="P7" s="11">
+      <c r="P7" s="21">
         <v>1</v>
       </c>
       <c r="Q7" s="18"/>
       <c r="R7" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="S7" s="21" t="s">
         <v>56</v>
       </c>
+      <c r="S7" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="T7" s="18"/>
     </row>
-    <row r="8" s="11" customFormat="1" spans="2:20">
+    <row r="8" s="11" customFormat="1" ht="14.25" spans="2:20">
       <c r="B8" s="18">
         <v>5</v>
       </c>
@@ -2034,31 +2041,31 @@
         <v>48</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="18">
+      <c r="I8" s="18"/>
+      <c r="J8" s="18">
         <v>0.25</v>
       </c>
-      <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
-      <c r="P8" s="11">
+      <c r="P8" s="21">
         <v>1</v>
       </c>
       <c r="Q8" s="18"/>
       <c r="R8" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="S8" s="21" t="s">
         <v>59</v>
       </c>
+      <c r="S8" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="T8" s="18"/>
     </row>
-    <row r="9" s="11" customFormat="1" spans="2:20">
+    <row r="9" s="11" customFormat="1" ht="14.25" spans="2:20">
       <c r="B9" s="18">
         <v>6</v>
       </c>
@@ -2076,28 +2083,28 @@
         <v>49</v>
       </c>
       <c r="H9" s="18"/>
-      <c r="I9" s="18">
+      <c r="I9" s="18"/>
+      <c r="J9" s="18">
         <v>0.25</v>
       </c>
-      <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
-      <c r="P9" s="11">
+      <c r="P9" s="21">
         <v>1</v>
       </c>
       <c r="Q9" s="18"/>
       <c r="R9" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="S9" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="S9" s="22" t="s">
         <v>51</v>
       </c>
       <c r="T9" s="18"/>
     </row>
-    <row r="10" s="11" customFormat="1" spans="2:20">
+    <row r="10" s="11" customFormat="1" ht="14.25" spans="2:20">
       <c r="B10" s="18">
         <v>7</v>
       </c>
@@ -2111,18 +2118,20 @@
       <c r="F10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="18" t="s">
+        <v>52</v>
+      </c>
       <c r="H10" s="18"/>
-      <c r="I10" s="18">
+      <c r="I10" s="18"/>
+      <c r="J10" s="18">
         <v>0.25</v>
       </c>
-      <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
-      <c r="P10" s="11">
+      <c r="P10" s="21">
         <v>1</v>
       </c>
       <c r="Q10" s="18"/>
@@ -2130,7 +2139,7 @@
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
     </row>
-    <row r="11" s="11" customFormat="1" spans="2:20">
+    <row r="11" s="11" customFormat="1" ht="14.25" spans="2:20">
       <c r="B11" s="18">
         <v>8</v>
       </c>
@@ -2145,19 +2154,19 @@
         <v>48</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H11" s="18"/>
-      <c r="I11" s="18">
+      <c r="I11" s="18"/>
+      <c r="J11" s="18">
         <v>0.25</v>
       </c>
-      <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
-      <c r="P11" s="11">
+      <c r="P11" s="21">
         <v>1</v>
       </c>
       <c r="Q11" s="18"/>
@@ -2165,7 +2174,7 @@
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" s="11" customFormat="1" spans="2:20">
+    <row r="12" s="11" customFormat="1" ht="14.25" spans="2:20">
       <c r="B12" s="18">
         <v>9</v>
       </c>
@@ -2180,13 +2189,13 @@
         <v>48</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H12" s="18"/>
-      <c r="I12" s="18">
+      <c r="I12" s="18"/>
+      <c r="J12" s="18">
         <v>0.25</v>
       </c>
-      <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18">
         <v>1</v>
@@ -2194,15 +2203,15 @@
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
-      <c r="P12" s="11">
+      <c r="P12" s="21">
         <v>1</v>
       </c>
       <c r="Q12" s="18"/>
       <c r="R12" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="S12" s="21" t="s">
         <v>63</v>
+      </c>
+      <c r="S12" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="T12" s="18"/>
     </row>
@@ -2225,11 +2234,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="10.3716814159292" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.24778761061947" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15.1238938053097" customWidth="1"/>
-    <col min="7" max="7" width="40.3716814159292" customWidth="1"/>
-    <col min="8" max="8" width="21.2477876106195" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="40.375" customWidth="1"/>
+    <col min="8" max="8" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="1" spans="1:8">
@@ -2303,10 +2312,10 @@
         <v>31</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:8">
       <c r="A4" s="16"/>
       <c r="B4" s="16">
         <v>1</v>
@@ -2318,17 +2327,17 @@
         <v>0</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" ht="14.25" spans="1:8">
       <c r="A5" s="16"/>
       <c r="B5" s="16">
         <v>2</v>
@@ -2344,11 +2353,11 @@
         <v>46</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" ht="14.25" spans="1:8">
       <c r="A6" s="16"/>
       <c r="B6" s="16">
         <v>3</v>
@@ -2361,12 +2370,12 @@
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" ht="14.25" spans="1:8">
       <c r="A7" s="16"/>
       <c r="B7" s="16">
         <v>4</v>
@@ -2379,14 +2388,14 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" ht="14.25" spans="1:8">
       <c r="A8" s="16"/>
       <c r="B8" s="16">
         <v>5</v>
@@ -2399,14 +2408,14 @@
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" ht="14.25" spans="1:8">
       <c r="A9" s="16"/>
       <c r="B9" s="16">
         <v>6</v>
@@ -2422,11 +2431,11 @@
         <v>46</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" ht="14.25" spans="1:8">
       <c r="A10" s="16"/>
       <c r="B10" s="16">
         <v>7</v>
@@ -2439,13 +2448,13 @@
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" ht="13" customHeight="1" spans="1:8">
@@ -2461,14 +2470,14 @@
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" ht="14.25" spans="1:8">
       <c r="A12" s="16"/>
       <c r="B12" s="16">
         <v>9</v>
@@ -2484,11 +2493,11 @@
         <v>46</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" ht="14.25" spans="1:8">
       <c r="A13" s="16"/>
       <c r="B13" s="16">
         <v>10</v>
@@ -2500,13 +2509,13 @@
         <v>2</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" ht="13" customHeight="1" spans="1:8">
@@ -2522,10 +2531,10 @@
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H14" s="16"/>
     </row>
@@ -2542,19 +2551,19 @@
   <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="6.75221238938053" customWidth="1"/>
-    <col min="2" max="2" width="6.3716814159292" customWidth="1"/>
-    <col min="3" max="3" width="17.1238938053097" customWidth="1"/>
-    <col min="4" max="4" width="12.1238938053097" customWidth="1"/>
+    <col min="1" max="1" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.85" spans="1:4">
+    <row r="1" ht="16.5" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -2566,7 +2575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="13.85" spans="1:4">
+    <row r="2" ht="16.5" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2575,10 +2584,10 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" ht="13.85" spans="1:4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -2589,160 +2598,160 @@
         <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" ht="15" spans="1:4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
         <v>117</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:4">
+    <row r="5" ht="16.5" spans="1:4">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>118</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:4">
+    <row r="6" ht="16.5" spans="1:4">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>120</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:4">
+    <row r="7" ht="16.5" spans="1:4">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
         <v>133</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:4">
+    <row r="8" ht="16.5" spans="1:4">
       <c r="A8" s="7"/>
       <c r="B8" s="8">
         <v>134</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:4">
+    <row r="9" ht="16.5" spans="1:4">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>135</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:4">
+    <row r="10" ht="16.5" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="8">
         <v>137</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:4">
+    <row r="11" ht="16.5" spans="1:4">
       <c r="A11" s="7"/>
       <c r="B11" s="8">
         <v>140</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D11" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:4">
+    <row r="12" ht="16.5" spans="1:4">
       <c r="A12" s="7"/>
       <c r="B12" s="8">
         <v>142</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D12" s="8">
         <v>17</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:4">
+    <row r="13" ht="16.5" spans="1:4">
       <c r="A13" s="7"/>
       <c r="B13" s="8">
         <v>143</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:4">
+    <row r="14" ht="16.5" spans="1:4">
       <c r="A14" s="7"/>
       <c r="B14" s="8">
         <v>144</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D14" s="8">
         <v>22</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:4">
+    <row r="15" ht="16.5" spans="1:4">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>145</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D15" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:4">
+    <row r="16" ht="16.5" spans="1:4">
       <c r="A16" s="7"/>
       <c r="B16" s="8">
         <v>146</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D16" s="8">
         <v>20</v>

--- a/excel/Datas/0_GameGuide.xlsx
+++ b/excel/Datas/0_GameGuide.xlsx
@@ -53,7 +53,7 @@
           </rPr>
           <t xml:space="preserve">
 每一步的id确定之后就不要再变动
-代码会根据步骤id来判断条件是否满足</t>
+代码会根据步骤id来做一些特殊处理</t>
         </r>
       </text>
     </comment>
@@ -79,29 +79,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>81360:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-x表示代码中手动指定目标节点
-不填表示不需要挖孔</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="H3" authorId="0">
       <text>
         <r>
@@ -120,12 +97,111 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-手动触发引导步骤的挖空大小
-</t>
+0：代码中手动完成本步引导
+1：点击挖孔区域
+2：点击屏幕任意一处
+3：延时多少秒自动完成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>81360:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+不填表示不需要挖孔
+以屏幕左下角为坐标原点</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>81360:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+不填表示不需要挖孔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>81360:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+挖孔对齐停靠方式
+不填不停靠
+1：向上停靠
+2：向下停靠
+3：向左停靠
+4：向右停靠
+第二位数表示停靠距离
+如：1,200 表示向上停靠200像素</t>
         </r>
       </text>
     </comment>
     <comment ref="L3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>81360:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+true:
+在本次挖孔前，不会重置上一步的挖孔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +224,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="O3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>81360:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+仅FinishStepType=3时生效
+单位秒
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="P3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>81360:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+若需要透明度为0 
+请填小于0的值 如-1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="0">
+    <comment ref="V3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -267,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
   <si>
     <t>##var</t>
   </si>
@@ -284,198 +407,216 @@
     <t>UIName</t>
   </si>
   <si>
+    <t>DelayCheckUI</t>
+  </si>
+  <si>
+    <t>FinishStepType</t>
+  </si>
+  <si>
+    <t>HollowPos</t>
+  </si>
+  <si>
+    <t>HollowSize</t>
+  </si>
+  <si>
+    <t>HollowAlign</t>
+  </si>
+  <si>
+    <t>HollowKeep</t>
+  </si>
+  <si>
+    <t>HollowType</t>
+  </si>
+  <si>
+    <t>HollowScale</t>
+  </si>
+  <si>
+    <t>FinishStepDelay</t>
+  </si>
+  <si>
+    <t>Opacity</t>
+  </si>
+  <si>
+    <t>RingScale</t>
+  </si>
+  <si>
+    <t>RingOffset</t>
+  </si>
+  <si>
+    <t>FingerDir</t>
+  </si>
+  <si>
+    <t>FingerOffset</t>
+  </si>
+  <si>
+    <t>TipText</t>
+  </si>
+  <si>
+    <t>TipPos</t>
+  </si>
+  <si>
+    <t>Prefab</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>vector2?</t>
+  </si>
+  <si>
+    <t>array,float</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>引导ID</t>
+  </si>
+  <si>
+    <t>步骤id</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>引导所在UI名字</t>
+  </si>
+  <si>
+    <t>延迟检测当前所在UI</t>
+  </si>
+  <si>
+    <t>完成这一步引导的方式</t>
+  </si>
+  <si>
+    <t>挖孔位置</t>
+  </si>
+  <si>
+    <t>挖孔尺寸</t>
+  </si>
+  <si>
+    <t>挖孔对齐方式</t>
+  </si>
+  <si>
+    <t>保留上一步挖孔</t>
+  </si>
+  <si>
+    <t>挖孔类型</t>
+  </si>
+  <si>
+    <t>挖孔缩放</t>
+  </si>
+  <si>
+    <t>延时多久完成本步引导</t>
+  </si>
+  <si>
+    <t>遮罩透明度</t>
+  </si>
+  <si>
+    <t>圆圈缩放</t>
+  </si>
+  <si>
+    <t>圆圈相对挖孔偏移</t>
+  </si>
+  <si>
+    <t>手指方向</t>
+  </si>
+  <si>
+    <t>手指相对挖孔偏移</t>
+  </si>
+  <si>
+    <t>提示文字</t>
+  </si>
+  <si>
+    <t>提示文字位置</t>
+  </si>
+  <si>
+    <t>加载预制体</t>
+  </si>
+  <si>
+    <t>第一关食物制作</t>
+  </si>
+  <si>
+    <t>UIFightScene</t>
+  </si>
+  <si>
+    <t>555,512</t>
+  </si>
+  <si>
+    <t>210,180</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 492,713</t>
+  </si>
+  <si>
+    <t>150,150</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>72,703</t>
+  </si>
+  <si>
+    <t>150,120</t>
+  </si>
+  <si>
+    <t>10个相同的硬币可以兑换成下一等级</t>
+  </si>
+  <si>
+    <t>140,-420</t>
+  </si>
+  <si>
+    <t>352,1019</t>
+  </si>
+  <si>
+    <t>100,100</t>
+  </si>
+  <si>
+    <t>获得更多硬币</t>
+  </si>
+  <si>
+    <t>-140,-420</t>
+  </si>
+  <si>
     <t>NodePath</t>
   </si>
   <si>
-    <t>NodeSize</t>
-  </si>
-  <si>
-    <t>ClickScreen</t>
-  </si>
-  <si>
-    <t>DelayCheckUI</t>
-  </si>
-  <si>
-    <t>Opacity</t>
-  </si>
-  <si>
-    <t>HollowType</t>
-  </si>
-  <si>
-    <t>HollowScale</t>
-  </si>
-  <si>
-    <t>RingScale</t>
-  </si>
-  <si>
-    <t>RingOffset</t>
-  </si>
-  <si>
-    <t>FingerDir</t>
-  </si>
-  <si>
-    <t>FingerOffset</t>
-  </si>
-  <si>
-    <t>TipText</t>
-  </si>
-  <si>
-    <t>TipPos</t>
-  </si>
-  <si>
-    <t>Prefab</t>
-  </si>
-  <si>
-    <t>##type</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>vector2?</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>主键</t>
-  </si>
-  <si>
-    <t>引导ID</t>
-  </si>
-  <si>
-    <t>步骤id</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
     <t>节点所在UI名字</t>
   </si>
   <si>
     <t>节点在UI中的路径</t>
   </si>
   <si>
-    <t>指定尺寸</t>
-  </si>
-  <si>
-    <t>点击屏幕即完成引导</t>
-  </si>
-  <si>
-    <t>延迟检测</t>
-  </si>
-  <si>
-    <t>遮罩透明度</t>
-  </si>
-  <si>
-    <t>挖孔类型</t>
-  </si>
-  <si>
-    <t>挖孔缩放</t>
-  </si>
-  <si>
-    <t>圆圈缩放</t>
-  </si>
-  <si>
-    <t>圆圈相对挖孔偏移</t>
-  </si>
-  <si>
-    <t>手指方向</t>
-  </si>
-  <si>
-    <t>手指相对挖孔偏移</t>
-  </si>
-  <si>
-    <t>提示文字</t>
-  </si>
-  <si>
-    <t>提示文字位置</t>
-  </si>
-  <si>
-    <t>加载预制体</t>
-  </si>
-  <si>
-    <t>引导推币</t>
+    <t>手指相对目标节点偏移</t>
+  </si>
+  <si>
+    <t>引导1</t>
+  </si>
+  <si>
+    <t>UIHUD</t>
+  </si>
+  <si>
+    <t>home/Bottom/BtnLeaveHome</t>
   </si>
   <si>
     <t>UICountryTown</t>
   </si>
   <si>
-    <t>home/btn/btnGuWan</t>
-  </si>
-  <si>
-    <t>UITuiBi</t>
-  </si>
-  <si>
-    <t>home/$Content/$CubesParent/CubesEntity</t>
-  </si>
-  <si>
-    <t>点击选择</t>
-  </si>
-  <si>
-    <t>-200;-180</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>相同硬币放在一起</t>
-  </si>
-  <si>
-    <t>60;-180</t>
-  </si>
-  <si>
-    <t>home/Bottom/$BtnMerge</t>
-  </si>
-  <si>
-    <t>10个相同的硬币可以兑换成下一等级</t>
-  </si>
-  <si>
-    <t>140;-420</t>
-  </si>
-  <si>
-    <t>home/Bottom/BtnAdd</t>
-  </si>
-  <si>
-    <t>获得更多硬币</t>
-  </si>
-  <si>
-    <t>-140;-420</t>
-  </si>
-  <si>
-    <t>继续合成</t>
-  </si>
-  <si>
-    <t>home/$Content/Guide102_9</t>
-  </si>
-  <si>
-    <t>兑换的收益会随着关卡提高</t>
-  </si>
-  <si>
-    <t>0;400</t>
-  </si>
-  <si>
-    <t>手指相对目标节点偏移</t>
-  </si>
-  <si>
-    <t>引导1</t>
-  </si>
-  <si>
-    <t>UIHUD</t>
-  </si>
-  <si>
-    <t>home/Bottom/BtnLeaveHome</t>
-  </si>
-  <si>
     <t>home/btn/btnShop</t>
   </si>
   <si>
@@ -497,7 +638,7 @@
     <t>home/Person/Daughter/$Bubble</t>
   </si>
   <si>
-    <t>0;90</t>
+    <t>0,90</t>
   </si>
   <si>
     <t>home/Top/BtnPort</t>
@@ -509,7 +650,7 @@
     <t>home/Merchant/1</t>
   </si>
   <si>
-    <t>0;300</t>
+    <t>0,300</t>
   </si>
   <si>
     <t>FuncOpenID</t>
@@ -1254,7 +1395,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1302,10 +1443,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1661,39 +1808,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="7.375" style="11" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="11" customWidth="1"/>
     <col min="3" max="3" width="8.375" style="11" customWidth="1"/>
     <col min="4" max="4" width="10.375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="11" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="34.75" style="11" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="19.125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="11" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="11.5083333333333" style="11" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="11" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="11" customWidth="1"/>
-    <col min="16" max="16" width="10.375" style="11" customWidth="1"/>
-    <col min="17" max="17" width="17.125" style="11" customWidth="1"/>
-    <col min="18" max="18" width="25.75" style="11" customWidth="1"/>
-    <col min="19" max="19" width="12.875" style="11" customWidth="1"/>
-    <col min="20" max="20" width="10.875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="21.25" style="11" customWidth="1"/>
+    <col min="9" max="11" width="12.875" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15" style="19" customWidth="1"/>
+    <col min="13" max="13" width="11.5083333333333" style="11" customWidth="1"/>
+    <col min="14" max="14" width="12.625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="21.25" style="11" customWidth="1"/>
+    <col min="16" max="16" width="10.875" style="11" customWidth="1"/>
+    <col min="17" max="17" width="10.375" style="11" customWidth="1"/>
+    <col min="18" max="18" width="17.125" style="11" customWidth="1"/>
+    <col min="19" max="19" width="10.375" style="11" customWidth="1"/>
+    <col min="20" max="20" width="17.125" style="11" customWidth="1"/>
+    <col min="21" max="21" width="25.75" style="11" customWidth="1"/>
+    <col min="22" max="22" width="12.875" style="11" customWidth="1"/>
+    <col min="23" max="23" width="10.875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:20">
+    <row r="1" s="9" customFormat="1" spans="1:23">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1710,22 +1858,22 @@
       <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="20" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="12" t="s">
@@ -1734,7 +1882,7 @@
       <c r="N1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="13" t="s">
         <v>13</v>
       </c>
       <c r="P1" s="12" t="s">
@@ -1752,468 +1900,366 @@
       <c r="T1" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" s="10" customFormat="1" spans="1:20">
+      <c r="U1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" s="10" customFormat="1" spans="1:23">
       <c r="A2" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="I2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="14" t="s">
+      <c r="V2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" spans="1:20">
+    </row>
+    <row r="3" s="9" customFormat="1" spans="1:23">
       <c r="A3" s="12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" s="11" customFormat="1" ht="14.25" spans="2:20">
+        <v>48</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" s="11" customFormat="1" ht="14.25" spans="2:23">
       <c r="B4" s="18">
         <v>1</v>
       </c>
       <c r="C4" s="18">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="17">
         <v>1</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+        <v>53</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18">
+        <v>1</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
-      <c r="P4" s="21">
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="25">
         <v>1</v>
       </c>
-      <c r="Q4" s="18"/>
-      <c r="S4" s="18"/>
       <c r="T4" s="18"/>
-    </row>
-    <row r="5" s="11" customFormat="1" ht="14.25" spans="2:20">
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+    </row>
+    <row r="5" s="11" customFormat="1" ht="14.25" spans="2:23">
       <c r="B5" s="18">
         <v>2</v>
       </c>
       <c r="C5" s="18">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="18">
         <v>2</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
+        <v>53</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18">
+        <v>3</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="21">
-        <v>1</v>
-      </c>
+      <c r="O5" s="18">
+        <v>2</v>
+      </c>
+      <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
-      <c r="R5" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="S5" s="22" t="s">
-        <v>51</v>
-      </c>
+      <c r="R5" s="18"/>
+      <c r="S5" s="25"/>
       <c r="T5" s="18"/>
-    </row>
-    <row r="6" s="11" customFormat="1" ht="14.25" spans="2:20">
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+    </row>
+    <row r="6" s="11" customFormat="1" ht="14.25" spans="2:23">
       <c r="B6" s="18">
         <v>3</v>
       </c>
       <c r="C6" s="18">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="18">
         <v>3</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+        <v>53</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
-      <c r="P6" s="21">
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="25">
         <v>1</v>
       </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="S6" s="22" t="s">
-        <v>54</v>
-      </c>
       <c r="T6" s="18"/>
-    </row>
-    <row r="7" s="11" customFormat="1" ht="14.25" spans="2:20">
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+    </row>
+    <row r="7" s="11" customFormat="1" ht="14.25" spans="2:23">
       <c r="B7" s="18">
         <v>4</v>
       </c>
       <c r="C7" s="18">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="18">
         <v>4</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+        <v>53</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18">
+        <v>1</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
-      <c r="P7" s="21">
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="25">
         <v>1</v>
       </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S7" s="22" t="s">
-        <v>57</v>
-      </c>
       <c r="T7" s="18"/>
-    </row>
-    <row r="8" s="11" customFormat="1" ht="14.25" spans="2:20">
+      <c r="U7" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="V7" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="W7" s="18"/>
+    </row>
+    <row r="8" s="11" customFormat="1" ht="14.25" spans="2:23">
       <c r="B8" s="18">
         <v>5</v>
       </c>
       <c r="C8" s="18">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="18">
         <v>5</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+        <v>53</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18">
+        <v>1</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
-      <c r="P8" s="21">
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="25">
         <v>1</v>
       </c>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S8" s="22" t="s">
-        <v>60</v>
-      </c>
       <c r="T8" s="18"/>
-    </row>
-    <row r="9" s="11" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B9" s="18">
-        <v>6</v>
-      </c>
-      <c r="C9" s="18">
-        <v>102</v>
-      </c>
-      <c r="D9" s="18">
-        <v>6</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="S9" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="T9" s="18"/>
-    </row>
-    <row r="10" s="11" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B10" s="18">
-        <v>7</v>
-      </c>
-      <c r="C10" s="18">
-        <v>102</v>
-      </c>
-      <c r="D10" s="18">
-        <v>7</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-    </row>
-    <row r="11" s="11" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B11" s="18">
-        <v>8</v>
-      </c>
-      <c r="C11" s="18">
-        <v>102</v>
-      </c>
-      <c r="D11" s="18">
-        <v>8</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-    </row>
-    <row r="12" s="11" customFormat="1" ht="14.25" spans="2:20">
-      <c r="B12" s="18">
-        <v>9</v>
-      </c>
-      <c r="C12" s="18">
-        <v>102</v>
-      </c>
-      <c r="D12" s="18">
-        <v>9</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18">
-        <v>1</v>
-      </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="S12" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="T12" s="18"/>
+      <c r="U8" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="V8" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="W8" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2259,60 +2305,60 @@
         <v>4</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" s="10" customFormat="1" spans="1:8">
       <c r="A2" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" spans="1:8">
       <c r="A3" s="12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:8">
@@ -2327,13 +2373,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H4" s="16"/>
     </row>
@@ -2350,10 +2396,10 @@
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H5" s="16"/>
     </row>
@@ -2370,7 +2416,7 @@
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="16"/>
@@ -2388,10 +2434,10 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H7" s="16"/>
     </row>
@@ -2408,10 +2454,10 @@
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H8" s="16"/>
     </row>
@@ -2428,10 +2474,10 @@
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H9" s="16"/>
     </row>
@@ -2448,13 +2494,13 @@
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" ht="13" customHeight="1" spans="1:8">
@@ -2470,10 +2516,10 @@
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H11" s="16"/>
     </row>
@@ -2490,10 +2536,10 @@
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H12" s="16"/>
     </row>
@@ -2509,13 +2555,13 @@
         <v>2</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" ht="13" customHeight="1" spans="1:8">
@@ -2531,10 +2577,10 @@
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H14" s="16"/>
     </row>
@@ -2565,14 +2611,14 @@
   <sheetData>
     <row r="1" ht="16.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:4">
@@ -2584,21 +2630,21 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:4">
@@ -2607,7 +2653,7 @@
         <v>117</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D4" s="8">
         <v>6</v>
@@ -2619,7 +2665,7 @@
         <v>118</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D5" s="8">
         <v>3</v>
@@ -2631,7 +2677,7 @@
         <v>120</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D6" s="8">
         <v>12</v>
@@ -2643,7 +2689,7 @@
         <v>133</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
@@ -2655,7 +2701,7 @@
         <v>134</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D8" s="8">
         <v>8</v>
@@ -2667,7 +2713,7 @@
         <v>135</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D9" s="8">
         <v>4</v>
@@ -2679,7 +2725,7 @@
         <v>137</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D10" s="8">
         <v>10</v>
@@ -2691,7 +2737,7 @@
         <v>140</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D11" s="8">
         <v>12</v>
@@ -2703,7 +2749,7 @@
         <v>142</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D12" s="8">
         <v>17</v>
@@ -2715,7 +2761,7 @@
         <v>143</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D13" s="8">
         <v>23</v>
@@ -2727,7 +2773,7 @@
         <v>144</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D14" s="8">
         <v>22</v>
@@ -2739,7 +2785,7 @@
         <v>145</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D15" s="8">
         <v>15</v>
@@ -2751,7 +2797,7 @@
         <v>146</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D16" s="8">
         <v>20</v>

--- a/excel/Datas/0_GameGuide.xlsx
+++ b/excel/Datas/0_GameGuide.xlsx
@@ -224,6 +224,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="N3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>81360:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+挖孔缩放只会缩放挖孔大小
+点击响应区域还是由HollowSize决定
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="O3" authorId="0">
       <text>
         <r>
@@ -390,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="100">
   <si>
     <t>##var</t>
   </si>
@@ -575,9 +599,6 @@
     <t>150,120</t>
   </si>
   <si>
-    <t>10个相同的硬币可以兑换成下一等级</t>
-  </si>
-  <si>
     <t>140,-420</t>
   </si>
   <si>
@@ -585,9 +606,6 @@
   </si>
   <si>
     <t>100,100</t>
-  </si>
-  <si>
-    <t>获得更多硬币</t>
   </si>
   <si>
     <t>-140,-420</t>
@@ -1810,10 +1828,10 @@
   <sheetPr/>
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -2209,11 +2227,9 @@
         <v>1</v>
       </c>
       <c r="T7" s="18"/>
-      <c r="U7" s="18" t="s">
+      <c r="U7" s="18"/>
+      <c r="V7" s="26" t="s">
         <v>61</v>
-      </c>
-      <c r="V7" s="26" t="s">
-        <v>62</v>
       </c>
       <c r="W7" s="18"/>
     </row>
@@ -2236,10 +2252,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="24" t="s">
         <v>63</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>64</v>
       </c>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
@@ -2253,11 +2269,9 @@
         <v>1</v>
       </c>
       <c r="T8" s="18"/>
-      <c r="U8" s="18" t="s">
-        <v>65</v>
-      </c>
+      <c r="U8" s="18"/>
       <c r="V8" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="W8" s="18"/>
     </row>
@@ -2305,7 +2319,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>18</v>
@@ -2352,13 +2366,13 @@
         <v>33</v>
       </c>
       <c r="F3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:8">
@@ -2373,13 +2387,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="H4" s="16"/>
     </row>
@@ -2396,10 +2410,10 @@
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H5" s="16"/>
     </row>
@@ -2416,7 +2430,7 @@
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="16"/>
@@ -2434,10 +2448,10 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H7" s="16"/>
     </row>
@@ -2454,10 +2468,10 @@
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H8" s="16"/>
     </row>
@@ -2474,10 +2488,10 @@
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H9" s="16"/>
     </row>
@@ -2494,13 +2508,13 @@
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" ht="13" customHeight="1" spans="1:8">
@@ -2516,10 +2530,10 @@
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H11" s="16"/>
     </row>
@@ -2536,10 +2550,10 @@
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H12" s="16"/>
     </row>
@@ -2555,13 +2569,13 @@
         <v>2</v>
       </c>
       <c r="F13" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>84</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" ht="13" customHeight="1" spans="1:8">
@@ -2577,10 +2591,10 @@
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H14" s="16"/>
     </row>
@@ -2630,7 +2644,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
@@ -2644,7 +2658,7 @@
         <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:4">
@@ -2653,7 +2667,7 @@
         <v>117</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4" s="8">
         <v>6</v>
@@ -2665,7 +2679,7 @@
         <v>118</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" s="8">
         <v>3</v>
@@ -2677,7 +2691,7 @@
         <v>120</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" s="8">
         <v>12</v>
@@ -2689,7 +2703,7 @@
         <v>133</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
@@ -2701,7 +2715,7 @@
         <v>134</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="8">
         <v>8</v>
@@ -2713,7 +2727,7 @@
         <v>135</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D9" s="8">
         <v>4</v>
@@ -2725,7 +2739,7 @@
         <v>137</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="8">
         <v>10</v>
@@ -2737,7 +2751,7 @@
         <v>140</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D11" s="8">
         <v>12</v>
@@ -2749,7 +2763,7 @@
         <v>142</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D12" s="8">
         <v>17</v>
@@ -2761,7 +2775,7 @@
         <v>143</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13" s="8">
         <v>23</v>
@@ -2773,7 +2787,7 @@
         <v>144</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" s="8">
         <v>22</v>
@@ -2785,7 +2799,7 @@
         <v>145</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D15" s="8">
         <v>15</v>
@@ -2797,7 +2811,7 @@
         <v>146</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D16" s="8">
         <v>20</v>

--- a/excel/Datas/0_GameGuide.xlsx
+++ b/excel/Datas/0_GameGuide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
@@ -242,9 +242,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-挖孔缩放只会缩放挖孔大小
-点击响应区域还是由HollowSize决定
-</t>
+默认值大于0
+若需要值为0 
+请填小于0的值 如-1</t>
         </r>
       </text>
     </comment>
@@ -266,8 +266,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-仅FinishStepType=3时生效
-单位秒
+挖孔缩放只会缩放挖孔大小
+点击响应区域还是由HollowSize决定
 </t>
         </r>
       </text>
@@ -290,12 +290,60 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-若需要透明度为0 
-请填小于0的值 如-1</t>
+仅FinishStepType=3时生效
+单位秒
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="0">
+    <comment ref="Q3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>81360:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+默认值大于0
+若需要值为0 
+请填小于0的值 如-1
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>81360:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+圆圈和手指在有挖孔时才会显示</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -322,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0">
+    <comment ref="W3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -414,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="107">
   <si>
     <t>##var</t>
   </si>
@@ -431,7 +479,7 @@
     <t>UIName</t>
   </si>
   <si>
-    <t>DelayCheckUI</t>
+    <t>Delay</t>
   </si>
   <si>
     <t>FinishStepType</t>
@@ -452,6 +500,9 @@
     <t>HollowType</t>
   </si>
   <si>
+    <t>HollowAnimDur</t>
+  </si>
+  <si>
     <t>HollowScale</t>
   </si>
   <si>
@@ -521,7 +572,7 @@
     <t>引导所在UI名字</t>
   </si>
   <si>
-    <t>延迟检测当前所在UI</t>
+    <t>延迟开始本步引导</t>
   </si>
   <si>
     <t>完成这一步引导的方式</t>
@@ -542,6 +593,9 @@
     <t>挖孔类型</t>
   </si>
   <si>
+    <t>挖孔动画时长</t>
+  </si>
+  <si>
     <t>挖孔缩放</t>
   </si>
   <si>
@@ -578,12 +632,18 @@
     <t>UIFightScene</t>
   </si>
   <si>
+    <t>煎饼摊开张了，现在，我们开始摊第一个煎饼吧</t>
+  </si>
+  <si>
     <t>555,512</t>
   </si>
   <si>
     <t>210,180</t>
   </si>
   <si>
+    <t>点击将面糊摊在锅上</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 492,713</t>
   </si>
   <si>
@@ -593,12 +653,18 @@
     <t>true</t>
   </si>
   <si>
+    <t>火候刚刚好，可以出锅了</t>
+  </si>
+  <si>
     <t>72,703</t>
   </si>
   <si>
     <t>150,120</t>
   </si>
   <si>
+    <t>点击交给正在等待的顾客吧</t>
+  </si>
+  <si>
     <t>140,-420</t>
   </si>
   <si>
@@ -606,6 +672,9 @@
   </si>
   <si>
     <t>100,100</t>
+  </si>
+  <si>
+    <t>另一个顾客的豆浆也好了，点击提交吧</t>
   </si>
   <si>
     <t>-140,-420</t>
@@ -918,12 +987,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1413,7 +1482,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1474,6 +1543,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1826,15 +1898,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
+      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.375" style="11" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="11" customWidth="1"/>
@@ -1842,24 +1914,24 @@
     <col min="4" max="4" width="10.375" style="11" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="11" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="19.375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="11" customWidth="1"/>
     <col min="8" max="8" width="21.25" style="11" customWidth="1"/>
     <col min="9" max="11" width="12.875" style="19" customWidth="1"/>
     <col min="12" max="12" width="15" style="19" customWidth="1"/>
     <col min="13" max="13" width="11.5083333333333" style="11" customWidth="1"/>
-    <col min="14" max="14" width="12.625" style="11" customWidth="1"/>
-    <col min="15" max="15" width="21.25" style="11" customWidth="1"/>
-    <col min="16" max="16" width="10.875" style="11" customWidth="1"/>
-    <col min="17" max="17" width="10.375" style="11" customWidth="1"/>
-    <col min="18" max="18" width="17.125" style="11" customWidth="1"/>
-    <col min="19" max="19" width="10.375" style="11" customWidth="1"/>
-    <col min="20" max="20" width="17.125" style="11" customWidth="1"/>
-    <col min="21" max="21" width="25.75" style="11" customWidth="1"/>
-    <col min="22" max="22" width="12.875" style="11" customWidth="1"/>
-    <col min="23" max="23" width="10.875" style="11" customWidth="1"/>
+    <col min="14" max="15" width="12.625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="21.25" style="11" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="11" customWidth="1"/>
+    <col min="18" max="18" width="10.375" style="11" customWidth="1"/>
+    <col min="19" max="19" width="17.125" style="11" customWidth="1"/>
+    <col min="20" max="20" width="10.375" style="11" customWidth="1"/>
+    <col min="21" max="21" width="17.125" style="11" customWidth="1"/>
+    <col min="22" max="22" width="25.75" style="11" customWidth="1"/>
+    <col min="23" max="23" width="12.875" style="11" customWidth="1"/>
+    <col min="24" max="24" width="10.875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:23">
+    <row r="1" s="9" customFormat="1" spans="1:24">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1900,10 +1972,10 @@
       <c r="N1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="13" t="s">
         <v>14</v>
       </c>
       <c r="Q1" s="12" t="s">
@@ -1927,148 +1999,157 @@
       <c r="W1" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" s="10" customFormat="1" spans="1:23">
+      <c r="X1" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" s="10" customFormat="1" spans="1:24">
       <c r="A2" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>23</v>
-      </c>
       <c r="I2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="O2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="P2" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R2" s="14" t="s">
         <v>26</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" spans="1:23">
+        <v>27</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" spans="1:24">
       <c r="A3" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" s="11" customFormat="1" ht="14.25" spans="2:23">
+        <v>52</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" s="11" customFormat="1" ht="14.25" spans="2:24">
       <c r="B4" s="18">
         <v>1</v>
       </c>
@@ -2079,21 +2160,17 @@
         <v>1</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18">
-        <v>1</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>55</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
       <c r="M4" s="18"/>
@@ -2102,14 +2179,16 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="S4" s="25">
-        <v>1</v>
-      </c>
-      <c r="T4" s="18"/>
-      <c r="V4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="25" t="s">
+        <v>56</v>
+      </c>
       <c r="W4" s="18"/>
-    </row>
-    <row r="5" s="11" customFormat="1" ht="14.25" spans="2:23">
+      <c r="X4" s="18"/>
+    </row>
+    <row r="5" s="11" customFormat="1" ht="14.25" spans="2:24">
       <c r="B5" s="18">
         <v>2</v>
       </c>
@@ -2121,35 +2200,36 @@
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
-      <c r="O5" s="18">
-        <v>2</v>
-      </c>
+      <c r="O5" s="18"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="25"/>
       <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
+      <c r="V5" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="W5" s="18"/>
-    </row>
-    <row r="6" s="11" customFormat="1" ht="14.25" spans="2:23">
+      <c r="X5" s="18"/>
+    </row>
+    <row r="6" s="11" customFormat="1" ht="14.25" spans="2:24">
       <c r="B6" s="18">
         <v>3</v>
       </c>
@@ -2161,37 +2241,38 @@
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K6" s="24"/>
-      <c r="L6" s="24" t="s">
-        <v>58</v>
-      </c>
+      <c r="L6" s="24"/>
       <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
+      <c r="N6" s="18">
+        <v>-1</v>
+      </c>
       <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
+      <c r="P6" s="18">
+        <v>2</v>
+      </c>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
-      <c r="S6" s="25">
-        <v>1</v>
-      </c>
-      <c r="T6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="25"/>
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
-    </row>
-    <row r="7" s="11" customFormat="1" ht="14.25" spans="2:23">
+      <c r="X6" s="18"/>
+    </row>
+    <row r="7" s="11" customFormat="1" ht="16.5" spans="2:24">
       <c r="B7" s="18">
         <v>4</v>
       </c>
@@ -2203,37 +2284,40 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18">
         <v>1</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
+      <c r="L7" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
-      <c r="S7" s="25">
+      <c r="S7" s="18"/>
+      <c r="T7" s="25">
         <v>1</v>
       </c>
-      <c r="T7" s="18"/>
       <c r="U7" s="18"/>
       <c r="V7" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W7" s="18"/>
-    </row>
-    <row r="8" s="11" customFormat="1" ht="14.25" spans="2:23">
+      <c r="X7" s="18"/>
+    </row>
+    <row r="8" s="11" customFormat="1" ht="16.5" spans="2:24">
       <c r="B8" s="18">
         <v>5</v>
       </c>
@@ -2245,17 +2329,17 @@
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18">
         <v>1</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
@@ -2265,15 +2349,63 @@
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
-      <c r="S8" s="25">
+      <c r="S8" s="18"/>
+      <c r="T8" s="25">
         <v>1</v>
       </c>
-      <c r="T8" s="18"/>
       <c r="U8" s="18"/>
       <c r="V8" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="W8" s="18"/>
+        <v>66</v>
+      </c>
+      <c r="W8" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="X8" s="18"/>
+    </row>
+    <row r="9" s="11" customFormat="1" ht="16.5" spans="2:24">
+      <c r="B9" s="18">
+        <v>6</v>
+      </c>
+      <c r="C9" s="18">
+        <v>101</v>
+      </c>
+      <c r="D9" s="18">
+        <v>6</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18">
+        <v>1</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="25">
+        <v>1</v>
+      </c>
+      <c r="U9" s="18"/>
+      <c r="V9" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="W9" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="X9" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2319,60 +2451,60 @@
         <v>4</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" s="10" customFormat="1" spans="1:8">
       <c r="A2" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" spans="1:8">
       <c r="A3" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:8">
@@ -2387,13 +2519,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H4" s="16"/>
     </row>
@@ -2410,10 +2542,10 @@
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H5" s="16"/>
     </row>
@@ -2430,7 +2562,7 @@
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="16"/>
@@ -2448,10 +2580,10 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H7" s="16"/>
     </row>
@@ -2468,10 +2600,10 @@
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H8" s="16"/>
     </row>
@@ -2488,10 +2620,10 @@
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H9" s="16"/>
     </row>
@@ -2508,13 +2640,13 @@
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" ht="13" customHeight="1" spans="1:8">
@@ -2530,10 +2662,10 @@
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H11" s="16"/>
     </row>
@@ -2550,10 +2682,10 @@
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H12" s="16"/>
     </row>
@@ -2569,13 +2701,13 @@
         <v>2</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" ht="13" customHeight="1" spans="1:8">
@@ -2591,10 +2723,10 @@
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H14" s="16"/>
     </row>
@@ -2625,14 +2757,14 @@
   <sheetData>
     <row r="1" ht="16.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:4">
@@ -2644,21 +2776,21 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:4">
@@ -2667,7 +2799,7 @@
         <v>117</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D4" s="8">
         <v>6</v>
@@ -2679,7 +2811,7 @@
         <v>118</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D5" s="8">
         <v>3</v>
@@ -2691,7 +2823,7 @@
         <v>120</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D6" s="8">
         <v>12</v>
@@ -2703,7 +2835,7 @@
         <v>133</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
@@ -2715,7 +2847,7 @@
         <v>134</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D8" s="8">
         <v>8</v>
@@ -2727,7 +2859,7 @@
         <v>135</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D9" s="8">
         <v>4</v>
@@ -2739,7 +2871,7 @@
         <v>137</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D10" s="8">
         <v>10</v>
@@ -2751,7 +2883,7 @@
         <v>140</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D11" s="8">
         <v>12</v>
@@ -2763,7 +2895,7 @@
         <v>142</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D12" s="8">
         <v>17</v>
@@ -2775,7 +2907,7 @@
         <v>143</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D13" s="8">
         <v>23</v>
@@ -2787,7 +2919,7 @@
         <v>144</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D14" s="8">
         <v>22</v>
@@ -2799,7 +2931,7 @@
         <v>145</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D15" s="8">
         <v>15</v>
@@ -2811,7 +2943,7 @@
         <v>146</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D16" s="8">
         <v>20</v>

--- a/excel/Datas/0_GameGuide.xlsx
+++ b/excel/Datas/0_GameGuide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11805"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,33 +123,33 @@
           </rPr>
           <t xml:space="preserve">
 不填表示不需要挖孔
-以屏幕左下角为坐标原点</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>81360:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-不填表示不需要挖孔</t>
+以屏幕中心为坐标原点</t>
         </r>
       </text>
     </comment>
     <comment ref="K3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>81360:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+不填表示不需要挖孔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -198,29 +198,6 @@
           <t xml:space="preserve">
 true:
 在本次挖孔前，不会重置上一步的挖孔</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>81360:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-默认：圆形
-1：矩形</t>
         </r>
       </text>
     </comment>
@@ -243,8 +220,8 @@
           </rPr>
           <t xml:space="preserve">
 默认值大于0
-若需要值为0 
-请填小于0的值 如-1</t>
+若需要值等于0，请填小于0的值 如-1
+</t>
         </r>
       </text>
     </comment>
@@ -266,9 +243,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-挖孔缩放只会缩放挖孔大小
-点击响应区域还是由HollowSize决定
-</t>
+默认：圆形
+1：矩形</t>
         </r>
       </text>
     </comment>
@@ -290,8 +266,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-仅FinishStepType=3时生效
-单位秒
+挖孔缩放只会缩放挖孔大小
+点击响应区域还是由HollowSize决定
 </t>
         </r>
       </text>
@@ -314,9 +290,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-默认值大于0
-若需要值为0 
-请填小于0的值 如-1
+仅FinishStepType=3时生效
+单位秒
 </t>
         </r>
       </text>
@@ -339,11 +314,34 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-圆圈和手指在有挖孔时才会显示</t>
+默认值大于0
+若需要值等于0，请填小于0的值 如-1</t>
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="0">
+    <comment ref="S3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>81360:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+圆圈和手指在有挖孔时才会显示</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="0">
+    <comment ref="X3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -388,7 +386,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-相对于屏幕中心的位置</t>
+以屏幕中心为坐标原点
+</t>
         </r>
       </text>
     </comment>
@@ -462,7 +461,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="109">
   <si>
     <t>##var</t>
   </si>
@@ -497,12 +496,12 @@
     <t>HollowKeep</t>
   </si>
   <si>
+    <t>HollowAnimDur</t>
+  </si>
+  <si>
     <t>HollowType</t>
   </si>
   <si>
-    <t>HollowAnimDur</t>
-  </si>
-  <si>
     <t>HollowScale</t>
   </si>
   <si>
@@ -524,15 +523,15 @@
     <t>FingerOffset</t>
   </si>
   <si>
+    <t>Prefab</t>
+  </si>
+  <si>
+    <t>TipPos</t>
+  </si>
+  <si>
     <t>TipText</t>
   </si>
   <si>
-    <t>TipPos</t>
-  </si>
-  <si>
-    <t>Prefab</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -590,12 +589,12 @@
     <t>保留上一步挖孔</t>
   </si>
   <si>
+    <t>挖孔动画时长</t>
+  </si>
+  <si>
     <t>挖孔类型</t>
   </si>
   <si>
-    <t>挖孔动画时长</t>
-  </si>
-  <si>
     <t>挖孔缩放</t>
   </si>
   <si>
@@ -617,16 +616,16 @@
     <t>手指相对挖孔偏移</t>
   </si>
   <si>
+    <t>加载预制体</t>
+  </si>
+  <si>
+    <t>提示文字位置</t>
+  </si>
+  <si>
     <t>提示文字</t>
   </si>
   <si>
-    <t>提示文字位置</t>
-  </si>
-  <si>
-    <t>加载预制体</t>
-  </si>
-  <si>
-    <t>第一关食物制作</t>
+    <t>第1关</t>
   </si>
   <si>
     <t>UIFightScene</t>
@@ -635,7 +634,10 @@
     <t>煎饼摊开张了，现在，我们开始摊第一个煎饼吧</t>
   </si>
   <si>
-    <t>555,512</t>
+    <t>做饭，2个</t>
+  </si>
+  <si>
+    <t>180,-363</t>
   </si>
   <si>
     <t>210,180</t>
@@ -644,40 +646,43 @@
     <t>点击将面糊摊在锅上</t>
   </si>
   <si>
-    <t xml:space="preserve"> 492,713</t>
+    <t>117,-212</t>
   </si>
   <si>
     <t>150,150</t>
   </si>
   <si>
+    <t>-1</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
     <t>火候刚刚好，可以出锅了</t>
   </si>
   <si>
-    <t>72,703</t>
+    <t>-303,-172</t>
   </si>
   <si>
     <t>150,120</t>
   </si>
   <si>
+    <t>140,-420</t>
+  </si>
+  <si>
     <t>点击交给正在等待的顾客吧</t>
   </si>
   <si>
-    <t>140,-420</t>
-  </si>
-  <si>
-    <t>352,1019</t>
+    <t>-23,144</t>
   </si>
   <si>
     <t>100,100</t>
   </si>
   <si>
+    <t>-140,-420</t>
+  </si>
+  <si>
     <t>另一个顾客的豆浆也好了，点击提交吧</t>
-  </si>
-  <si>
-    <t>-140,-420</t>
   </si>
   <si>
     <t>NodePath</t>
@@ -987,12 +992,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1482,7 +1487,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1530,23 +1535,60 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1898,514 +1940,526 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="21.25" style="11" customWidth="1"/>
-    <col min="9" max="11" width="12.875" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15" style="19" customWidth="1"/>
-    <col min="13" max="13" width="11.5083333333333" style="11" customWidth="1"/>
-    <col min="14" max="15" width="12.625" style="11" customWidth="1"/>
-    <col min="16" max="16" width="21.25" style="11" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="11" customWidth="1"/>
-    <col min="18" max="18" width="10.375" style="11" customWidth="1"/>
-    <col min="19" max="19" width="17.125" style="11" customWidth="1"/>
-    <col min="20" max="20" width="10.375" style="11" customWidth="1"/>
-    <col min="21" max="21" width="17.125" style="11" customWidth="1"/>
-    <col min="22" max="22" width="25.75" style="11" customWidth="1"/>
-    <col min="23" max="23" width="12.875" style="11" customWidth="1"/>
-    <col min="24" max="24" width="10.875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="4" style="21" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="21" customWidth="1"/>
+    <col min="7" max="8" width="14.875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="21.25" style="21" customWidth="1"/>
+    <col min="10" max="12" width="12.875" style="22" customWidth="1"/>
+    <col min="13" max="14" width="15" style="22" customWidth="1"/>
+    <col min="15" max="15" width="11.5083333333333" style="21" customWidth="1"/>
+    <col min="16" max="16" width="12.625" style="21" customWidth="1"/>
+    <col min="17" max="17" width="21.25" style="21" customWidth="1"/>
+    <col min="18" max="18" width="10.875" style="21" customWidth="1"/>
+    <col min="19" max="19" width="10.375" style="21" customWidth="1"/>
+    <col min="20" max="20" width="17.125" style="21" customWidth="1"/>
+    <col min="21" max="21" width="10.375" style="21" customWidth="1"/>
+    <col min="22" max="22" width="17.125" style="21" customWidth="1"/>
+    <col min="23" max="23" width="10.875" style="21" customWidth="1"/>
+    <col min="24" max="24" width="12.875" style="21" customWidth="1"/>
+    <col min="25" max="25" width="38.375" style="23" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:24">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="19" customFormat="1" spans="1:25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="K1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" spans="1:24">
-      <c r="A2" s="14" t="s">
+    <row r="2" s="20" customFormat="1" spans="1:25">
+      <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="K2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="L2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="M2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="N2" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="P2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="Q2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="R2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="T2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="14" t="s">
+      <c r="V2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="14" t="s">
+      <c r="W2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="Y2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" spans="1:24">
-      <c r="A3" s="12" t="s">
+    </row>
+    <row r="3" s="19" customFormat="1" spans="1:25">
+      <c r="A3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="30"/>
+      <c r="I3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="J3" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="K3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="N3" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="Q3" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="R3" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="S3" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="W3" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="X3" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Y3" s="30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="1" ht="14.25" spans="2:24">
-      <c r="B4" s="18">
+    <row r="4" s="21" customFormat="1" spans="2:25">
+      <c r="B4" s="31">
         <v>1</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="31">
         <v>101</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="31">
         <v>1</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18">
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31">
         <v>2</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="25" t="s">
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-    </row>
-    <row r="5" s="11" customFormat="1" ht="14.25" spans="2:24">
-      <c r="B5" s="18">
+    </row>
+    <row r="5" s="21" customFormat="1" spans="2:25">
+      <c r="B5" s="31">
         <v>2</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="31">
         <v>101</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="31">
         <v>2</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18" t="s">
+      <c r="E5" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18">
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31">
         <v>1</v>
       </c>
-      <c r="I5" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18" t="s">
+      <c r="K5" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-    </row>
-    <row r="6" s="11" customFormat="1" ht="14.25" spans="2:24">
-      <c r="B6" s="18">
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" s="21" customFormat="1" spans="2:25">
+      <c r="B6" s="31">
         <v>3</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="31">
         <v>101</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="31">
         <v>3</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18">
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31">
         <v>3</v>
       </c>
-      <c r="I6" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18">
-        <v>-1</v>
-      </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18">
+      <c r="K6" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31">
         <v>2</v>
       </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-    </row>
-    <row r="7" s="11" customFormat="1" ht="16.5" spans="2:24">
-      <c r="B7" s="18">
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="36"/>
+    </row>
+    <row r="7" s="21" customFormat="1" spans="2:25">
+      <c r="B7" s="31">
         <v>4</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="31">
         <v>101</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="31">
         <v>4</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="31"/>
+      <c r="F7" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18">
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31">
         <v>1</v>
       </c>
-      <c r="I7" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24" t="s">
+      <c r="K7" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="25">
+      <c r="L7" s="35"/>
+      <c r="M7" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="35"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31">
         <v>1</v>
       </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-    </row>
-    <row r="8" s="11" customFormat="1" ht="16.5" spans="2:24">
-      <c r="B8" s="18">
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" s="21" customFormat="1" spans="2:25">
+      <c r="B8" s="31">
         <v>5</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="31">
         <v>101</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="31">
         <v>5</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="31"/>
+      <c r="F8" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18">
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31">
         <v>1</v>
       </c>
-      <c r="I8" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="25">
+      <c r="J8" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31">
         <v>1</v>
       </c>
-      <c r="U8" s="18"/>
-      <c r="V8" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="W8" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="X8" s="18"/>
-    </row>
-    <row r="9" s="11" customFormat="1" ht="16.5" spans="2:24">
-      <c r="B9" s="18">
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y8" s="37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" s="21" customFormat="1" spans="2:25">
+      <c r="B9" s="31">
         <v>6</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="31">
         <v>101</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="31">
         <v>6</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="31"/>
+      <c r="F9" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18">
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31">
         <v>1</v>
       </c>
-      <c r="I9" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="25">
+      <c r="J9" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31">
         <v>1</v>
       </c>
-      <c r="U9" s="18"/>
-      <c r="V9" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="W9" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="X9" s="18"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y9" s="37" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2451,7 +2505,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>19</v>
@@ -2498,13 +2552,13 @@
         <v>34</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:8">
@@ -2519,13 +2573,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H4" s="16"/>
     </row>
@@ -2542,10 +2596,10 @@
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H5" s="16"/>
     </row>
@@ -2562,7 +2616,7 @@
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="16"/>
@@ -2580,10 +2634,10 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H7" s="16"/>
     </row>
@@ -2600,10 +2654,10 @@
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H8" s="16"/>
     </row>
@@ -2620,10 +2674,10 @@
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H9" s="16"/>
     </row>
@@ -2640,13 +2694,13 @@
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" ht="13" customHeight="1" spans="1:8">
@@ -2662,10 +2716,10 @@
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H11" s="16"/>
     </row>
@@ -2682,10 +2736,10 @@
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H12" s="16"/>
     </row>
@@ -2701,13 +2755,13 @@
         <v>2</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" ht="13" customHeight="1" spans="1:8">
@@ -2723,10 +2777,10 @@
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="16"/>
     </row>
@@ -2776,7 +2830,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
@@ -2790,7 +2844,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:4">
@@ -2799,7 +2853,7 @@
         <v>117</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D4" s="8">
         <v>6</v>
@@ -2811,7 +2865,7 @@
         <v>118</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D5" s="8">
         <v>3</v>
@@ -2823,7 +2877,7 @@
         <v>120</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6" s="8">
         <v>12</v>
@@ -2835,7 +2889,7 @@
         <v>133</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
@@ -2847,7 +2901,7 @@
         <v>134</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D8" s="8">
         <v>8</v>
@@ -2859,7 +2913,7 @@
         <v>135</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D9" s="8">
         <v>4</v>
@@ -2871,7 +2925,7 @@
         <v>137</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D10" s="8">
         <v>10</v>
@@ -2883,7 +2937,7 @@
         <v>140</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D11" s="8">
         <v>12</v>
@@ -2895,7 +2949,7 @@
         <v>142</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D12" s="8">
         <v>17</v>
@@ -2907,7 +2961,7 @@
         <v>143</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D13" s="8">
         <v>23</v>
@@ -2919,7 +2973,7 @@
         <v>144</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D14" s="8">
         <v>22</v>
@@ -2931,7 +2985,7 @@
         <v>145</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D15" s="8">
         <v>15</v>
@@ -2943,7 +2997,7 @@
         <v>146</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D16" s="8">
         <v>20</v>

--- a/excel/Datas/0_GameGuide.xlsx
+++ b/excel/Datas/0_GameGuide.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
     <sheet name="UnforcedGuide" sheetId="2" r:id="rId2"/>
-    <sheet name="GuideOpenPlan" sheetId="3" r:id="rId3"/>
+    <sheet name="GuideOpen" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,10 +97,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0：代码中手动完成本步引导
-1：点击挖孔区域
+1：点击挖孔区域(手指抬起生效)
 2：点击屏幕任意一处
-3：延时多少秒自动完成</t>
+3：延时多少秒自动完成
+10：点击挖孔区域(手指按下瞬间生效)
+不填表示通过其它方式完成
+</t>
         </r>
       </text>
     </comment>
@@ -167,6 +169,80 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+默认没有手指
+0：隐藏
+1：上
+2：下
+3：左
+4：右</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>81360:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+以屏幕中心为坐标原点
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>81360:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+仅FinishStepType=3时生效
+单位秒
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>81360:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 挖孔对齐停靠方式
 不填不停靠
 1：向上停靠
@@ -174,11 +250,13 @@
 3：向左停靠
 4：向右停靠
 第二位数表示停靠距离
-如：1,200 表示向上停靠200像素</t>
+如：1,200 表示向上停靠200像素
+在1,2,3,4后面加0表示适配刘海屏
+如：10,200 表示向上停靠200像素且适配刘海</t>
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0">
+    <comment ref="R3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0">
+    <comment ref="S3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -248,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0">
+    <comment ref="T3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -272,31 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>81360:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-仅FinishStepType=3时生效
-单位秒
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R3" authorId="0">
+    <comment ref="U3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -319,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="0">
+    <comment ref="V3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -338,56 +392,6 @@
           </rPr>
           <t xml:space="preserve">
 圆圈和手指在有挖孔时才会显示</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>81360:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-默认没有手指
-0：隐藏
-1：上
-2：下
-3：左
-4：右</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>81360:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-以屏幕中心为坐标原点
-</t>
         </r>
       </text>
     </comment>
@@ -434,7 +438,7 @@
     <author>81360</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -456,12 +460,56 @@
         </r>
       </text>
     </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>81360:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+背包物品不足时 强制补充物品到满足条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>81360:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+只触发一次引导，不管是否完成引导都不会再触发</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="172">
   <si>
     <t>##var</t>
   </si>
@@ -490,6 +538,18 @@
     <t>HollowSize</t>
   </si>
   <si>
+    <t>FingerDir</t>
+  </si>
+  <si>
+    <t>TipPos</t>
+  </si>
+  <si>
+    <t>TipText</t>
+  </si>
+  <si>
+    <t>FinishStepDelay</t>
+  </si>
+  <si>
     <t>HollowAlign</t>
   </si>
   <si>
@@ -505,9 +565,6 @@
     <t>HollowScale</t>
   </si>
   <si>
-    <t>FinishStepDelay</t>
-  </si>
-  <si>
     <t>Opacity</t>
   </si>
   <si>
@@ -517,21 +574,12 @@
     <t>RingOffset</t>
   </si>
   <si>
-    <t>FingerDir</t>
-  </si>
-  <si>
     <t>FingerOffset</t>
   </si>
   <si>
     <t>Prefab</t>
   </si>
   <si>
-    <t>TipPos</t>
-  </si>
-  <si>
-    <t>TipText</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -547,7 +595,7 @@
     <t>vector2?</t>
   </si>
   <si>
-    <t>array,float</t>
+    <t>(list#sep=;),float</t>
   </si>
   <si>
     <t>bool</t>
@@ -574,7 +622,7 @@
     <t>延迟开始本步引导</t>
   </si>
   <si>
-    <t>完成这一步引导的方式</t>
+    <t>行进逻辑</t>
   </si>
   <si>
     <t>挖孔位置</t>
@@ -583,6 +631,18 @@
     <t>挖孔尺寸</t>
   </si>
   <si>
+    <t>手指方向</t>
+  </si>
+  <si>
+    <t>提示文字位置</t>
+  </si>
+  <si>
+    <t>提示文字</t>
+  </si>
+  <si>
+    <t>等多久完成</t>
+  </si>
+  <si>
     <t>挖孔对齐方式</t>
   </si>
   <si>
@@ -598,9 +658,6 @@
     <t>挖孔缩放</t>
   </si>
   <si>
-    <t>延时多久完成本步引导</t>
-  </si>
-  <si>
     <t>遮罩透明度</t>
   </si>
   <si>
@@ -610,55 +667,64 @@
     <t>圆圈相对挖孔偏移</t>
   </si>
   <si>
-    <t>手指方向</t>
-  </si>
-  <si>
     <t>手指相对挖孔偏移</t>
   </si>
   <si>
     <t>加载预制体</t>
   </si>
   <si>
-    <t>提示文字位置</t>
-  </si>
-  <si>
-    <t>提示文字</t>
-  </si>
-  <si>
     <t>第1关</t>
   </si>
   <si>
     <t>UIFightScene</t>
   </si>
   <si>
+    <t>开场白，纯文字</t>
+  </si>
+  <si>
+    <t>0,-100</t>
+  </si>
+  <si>
     <t>煎饼摊开张了，现在，我们开始摊第一个煎饼吧</t>
   </si>
   <si>
     <t>做饭，2个</t>
   </si>
   <si>
-    <t>180,-363</t>
-  </si>
-  <si>
-    <t>210,180</t>
+    <t>点，煎饼原料</t>
+  </si>
+  <si>
+    <t>180,-370</t>
+  </si>
+  <si>
+    <t>150,150</t>
   </si>
   <si>
     <t>点击将面糊摊在锅上</t>
   </si>
   <si>
-    <t>117,-212</t>
-  </si>
-  <si>
-    <t>150,150</t>
+    <t>新章节</t>
+  </si>
+  <si>
+    <t>等，做</t>
+  </si>
+  <si>
+    <t>117,-200</t>
   </si>
   <si>
     <t>-1</t>
   </si>
   <si>
+    <t>点，装盘</t>
+  </si>
+  <si>
+    <t>火候刚刚好，可以出锅了</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>火候刚刚好，可以出锅了</t>
+    <t>点，上菜煎饼</t>
   </si>
   <si>
     <t>-303,-172</t>
@@ -667,24 +733,93 @@
     <t>150,120</t>
   </si>
   <si>
-    <t>140,-420</t>
+    <t>100,-420</t>
   </si>
   <si>
     <t>点击交给正在等待的顾客吧</t>
   </si>
   <si>
+    <t>点，上菜茶水</t>
+  </si>
+  <si>
     <t>-23,144</t>
   </si>
   <si>
     <t>100,100</t>
   </si>
   <si>
-    <t>-140,-420</t>
-  </si>
-  <si>
     <t>另一个顾客的豆浆也好了，点击提交吧</t>
   </si>
   <si>
+    <t>圈目标</t>
+  </si>
+  <si>
+    <t>15,659</t>
+  </si>
+  <si>
+    <t>300,120</t>
+  </si>
+  <si>
+    <t>0,300</t>
+  </si>
+  <si>
+    <t>赚取8个金币就可以完成本关咯！</t>
+  </si>
+  <si>
+    <t>10;38</t>
+  </si>
+  <si>
+    <t>圈限制</t>
+  </si>
+  <si>
+    <t>-286,570</t>
+  </si>
+  <si>
+    <t>160,120</t>
+  </si>
+  <si>
+    <t>本关还剩下3个顾客了，继续为他们服务吧，加油！</t>
+  </si>
+  <si>
+    <t>10;37</t>
+  </si>
+  <si>
+    <t>第2关</t>
+  </si>
+  <si>
+    <t>圈需求</t>
+  </si>
+  <si>
+    <t>-1,291</t>
+  </si>
+  <si>
+    <t>这次我们改良了煎饼的配方</t>
+  </si>
+  <si>
+    <t>解锁薄脆</t>
+  </si>
+  <si>
+    <t>先摊个煎饼</t>
+  </si>
+  <si>
+    <t>主配菜</t>
+  </si>
+  <si>
+    <t>点，薄脆配菜</t>
+  </si>
+  <si>
+    <t>-299,-345</t>
+  </si>
+  <si>
+    <t>140,140</t>
+  </si>
+  <si>
+    <t>这位顾客希望加入薄脆，点击添加吧</t>
+  </si>
+  <si>
+    <t>点，上菜</t>
+  </si>
+  <si>
     <t>NodePath</t>
   </si>
   <si>
@@ -742,52 +877,154 @@
     <t>home/Merchant/1</t>
   </si>
   <si>
-    <t>0,300</t>
+    <t>GuideCondition</t>
   </si>
   <si>
     <t>FuncOpenID</t>
   </si>
   <si>
+    <t>ItemRequire</t>
+  </si>
+  <si>
+    <t>GiveItem</t>
+  </si>
+  <si>
+    <t>EmitOnce</t>
+  </si>
+  <si>
+    <t>Args1</t>
+  </si>
+  <si>
+    <t>Args2</t>
+  </si>
+  <si>
+    <t>Args3</t>
+  </si>
+  <si>
+    <t>引导触发条件类型</t>
+  </si>
+  <si>
+    <t>条件描述</t>
+  </si>
+  <si>
     <t>功能开启ID</t>
   </si>
   <si>
-    <t>解锁枪鸡兵线</t>
-  </si>
-  <si>
-    <t>抽取武器</t>
-  </si>
-  <si>
-    <t>解锁枪法鸡兵线</t>
-  </si>
-  <si>
-    <t>点击攻击boss</t>
-  </si>
-  <si>
-    <t>宠物系统</t>
-  </si>
-  <si>
-    <t>员工皮肤和魔窟</t>
-  </si>
-  <si>
-    <t>英雄皮肤和试炼1</t>
-  </si>
-  <si>
-    <t>试验2怪兽竞技场</t>
-  </si>
-  <si>
-    <t>试验3龙之挑战</t>
-  </si>
-  <si>
-    <t>试验4远古宝藏</t>
-  </si>
-  <si>
-    <t>研究所</t>
-  </si>
-  <si>
-    <t>挖矿，矿山科研所</t>
-  </si>
-  <si>
-    <t>迷宫</t>
+    <t>背包物品要求</t>
+  </si>
+  <si>
+    <t>是否补充物品</t>
+  </si>
+  <si>
+    <t>触发一次</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数1描述</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>参数2描述</t>
+  </si>
+  <si>
+    <t>参数3</t>
+  </si>
+  <si>
+    <t>参数3描述</t>
+  </si>
+  <si>
+    <t>第4关 升级设施</t>
+  </si>
+  <si>
+    <t>打开界面</t>
+  </si>
+  <si>
+    <t>1,240</t>
+  </si>
+  <si>
+    <t>UIGuanKaInfo</t>
+  </si>
+  <si>
+    <t>界面名字</t>
+  </si>
+  <si>
+    <t>升级按钮存在</t>
+  </si>
+  <si>
+    <t>第10关 解锁新店</t>
+  </si>
+  <si>
+    <t>战斗成功回到主界面</t>
+  </si>
+  <si>
+    <t>1_10_1</t>
+  </si>
+  <si>
+    <t>通关关卡Id</t>
+  </si>
+  <si>
+    <t>第13关 不粘锅道具</t>
+  </si>
+  <si>
+    <t>2_3_1</t>
+  </si>
+  <si>
+    <t>已解锁2_3_1</t>
+  </si>
+  <si>
+    <t>第18关 双倍金币道具</t>
+  </si>
+  <si>
+    <t>2_8_1</t>
+  </si>
+  <si>
+    <t>已解锁2_8_1</t>
+  </si>
+  <si>
+    <t>第20关 引导获取钥匙</t>
+  </si>
+  <si>
+    <t>2_10_1</t>
+  </si>
+  <si>
+    <t>第23关 金锅铲道具</t>
+  </si>
+  <si>
+    <t>2_13_1</t>
+  </si>
+  <si>
+    <t>已解锁2_13_1</t>
+  </si>
+  <si>
+    <t>第29关 冻结时间道具</t>
+  </si>
+  <si>
+    <t>2_19_1</t>
+  </si>
+  <si>
+    <t>已解锁2_19_1</t>
+  </si>
+  <si>
+    <t>第36关 自动上菜道具</t>
+  </si>
+  <si>
+    <t>2_26_1</t>
+  </si>
+  <si>
+    <t>已解锁2_26_1</t>
+  </si>
+  <si>
+    <t>第一次任务完成引导</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>有任务已完成</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1240,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1037,6 +1274,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,7 +1611,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1386,16 +1635,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1410,84 +1659,84 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1513,6 +1762,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1541,6 +1793,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1572,24 +1830,55 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1645,6 +1934,11 @@
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1940,526 +2234,941 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4" style="21" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="21" customWidth="1"/>
-    <col min="7" max="8" width="14.875" style="21" customWidth="1"/>
-    <col min="9" max="9" width="21.25" style="21" customWidth="1"/>
-    <col min="10" max="12" width="12.875" style="22" customWidth="1"/>
-    <col min="13" max="14" width="15" style="22" customWidth="1"/>
-    <col min="15" max="15" width="11.5083333333333" style="21" customWidth="1"/>
-    <col min="16" max="16" width="12.625" style="21" customWidth="1"/>
-    <col min="17" max="17" width="21.25" style="21" customWidth="1"/>
-    <col min="18" max="18" width="10.875" style="21" customWidth="1"/>
-    <col min="19" max="19" width="10.375" style="21" customWidth="1"/>
-    <col min="20" max="20" width="17.125" style="21" customWidth="1"/>
-    <col min="21" max="21" width="10.375" style="21" customWidth="1"/>
-    <col min="22" max="22" width="17.125" style="21" customWidth="1"/>
-    <col min="23" max="23" width="10.875" style="21" customWidth="1"/>
-    <col min="24" max="24" width="12.875" style="21" customWidth="1"/>
-    <col min="25" max="25" width="38.375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="4" style="24" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="24" customWidth="1"/>
+    <col min="7" max="8" width="14.875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="24" customWidth="1"/>
+    <col min="10" max="11" width="12.875" style="25" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="24" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="24" customWidth="1"/>
+    <col min="14" max="14" width="38.375" style="26" customWidth="1"/>
+    <col min="15" max="15" width="13.875" style="24" customWidth="1"/>
+    <col min="16" max="16" width="14.125" style="25" customWidth="1"/>
+    <col min="17" max="18" width="15" style="25" customWidth="1"/>
+    <col min="19" max="19" width="11.5083333333333" style="24" customWidth="1"/>
+    <col min="20" max="20" width="12.625" style="24" customWidth="1"/>
+    <col min="21" max="21" width="10.875" style="24" customWidth="1"/>
+    <col min="22" max="22" width="10.375" style="24" customWidth="1"/>
+    <col min="23" max="23" width="17.125" style="24" customWidth="1"/>
+    <col min="24" max="24" width="14.875" style="24" customWidth="1"/>
+    <col min="25" max="25" width="10.875" style="24" customWidth="1"/>
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" spans="1:25">
-      <c r="A1" s="24" t="s">
+    <row r="1" s="20" customFormat="1" spans="1:25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="V1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="W1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="Y1" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="1" spans="1:25">
-      <c r="A2" s="26" t="s">
+    <row r="2" s="21" customFormat="1" spans="1:25">
+      <c r="A2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="Q2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="R2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="S2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="T2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="U2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="28" t="s">
+      <c r="W2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" s="28" t="s">
+      <c r="X2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="28" t="s">
+      <c r="Y2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2" s="28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" s="19" customFormat="1" spans="1:25">
-      <c r="A3" s="24" t="s">
+    </row>
+    <row r="3" s="20" customFormat="1" spans="1:25">
+      <c r="A3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="33"/>
+      <c r="I3" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="O3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="Q3" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="R3" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="S3" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="T3" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="30" t="s">
+      <c r="U3" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="30" t="s">
+      <c r="V3" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="W3" s="30" t="s">
+      <c r="W3" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="X3" s="30" t="s">
+      <c r="X3" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="Y3" s="30" t="s">
+      <c r="Y3" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" s="21" customFormat="1" spans="2:25">
-      <c r="B4" s="31">
+    <row r="4" s="22" customFormat="1" spans="2:25">
+      <c r="B4" s="34">
         <v>1</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="35">
         <v>101</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="35">
         <v>1</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31">
+      <c r="G4" s="35"/>
+      <c r="H4" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="35">
         <v>2</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
       <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" s="21" customFormat="1" spans="2:25">
-      <c r="B5" s="31">
+      <c r="M4" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="35"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+    </row>
+    <row r="5" s="22" customFormat="1" spans="2:25">
+      <c r="B5" s="34">
         <v>2</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="35">
         <v>101</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="35">
         <v>2</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="35">
+        <v>10</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="35">
+        <v>1</v>
+      </c>
+      <c r="M5" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="N5" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" s="35"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+    </row>
+    <row r="6" s="22" customFormat="1" spans="2:25">
+      <c r="B6" s="34">
+        <v>3</v>
+      </c>
+      <c r="C6" s="35">
+        <v>101</v>
+      </c>
+      <c r="D6" s="35">
+        <v>3</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31">
-        <v>1</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" s="21" customFormat="1" spans="2:25">
-      <c r="B6" s="31">
+      <c r="G6" s="35"/>
+      <c r="H6" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="35">
         <v>3</v>
       </c>
-      <c r="C6" s="31">
-        <v>101</v>
-      </c>
-      <c r="D6" s="31">
-        <v>3</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31">
-        <v>3</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="35" t="s">
+      <c r="J6" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="49" t="s">
         <v>62</v>
       </c>
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
-      <c r="N6" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31">
+      <c r="N6" s="43"/>
+      <c r="O6" s="35">
+        <v>1</v>
+      </c>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+    </row>
+    <row r="7" s="22" customFormat="1" spans="2:25">
+      <c r="B7" s="34">
+        <v>4</v>
+      </c>
+      <c r="C7" s="35">
+        <v>101</v>
+      </c>
+      <c r="D7" s="35">
+        <v>4</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="35">
+        <v>10</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="35">
+        <v>1</v>
+      </c>
+      <c r="M7" s="35"/>
+      <c r="N7" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="R7" s="42"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+    </row>
+    <row r="8" s="22" customFormat="1" spans="2:25">
+      <c r="B8" s="34">
+        <v>5</v>
+      </c>
+      <c r="C8" s="35">
+        <v>101</v>
+      </c>
+      <c r="D8" s="35">
+        <v>5</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="35">
+        <v>10</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="35">
+        <v>1</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="35"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+    </row>
+    <row r="9" s="22" customFormat="1" spans="2:25">
+      <c r="B9" s="34">
+        <v>6</v>
+      </c>
+      <c r="C9" s="35">
+        <v>101</v>
+      </c>
+      <c r="D9" s="35">
+        <v>6</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="35">
+        <v>10</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="35">
+        <v>1</v>
+      </c>
+      <c r="M9" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" s="35"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+    </row>
+    <row r="10" s="22" customFormat="1" spans="2:25">
+      <c r="B10" s="34">
+        <v>7</v>
+      </c>
+      <c r="C10" s="35">
+        <v>101</v>
+      </c>
+      <c r="D10" s="35">
+        <v>7</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="35">
         <v>2</v>
       </c>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="36"/>
-    </row>
-    <row r="7" s="21" customFormat="1" spans="2:25">
-      <c r="B7" s="31">
+      <c r="J10" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="35"/>
+      <c r="M10" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" s="35"/>
+      <c r="P10" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="35">
+        <v>1</v>
+      </c>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+    </row>
+    <row r="11" s="22" customFormat="1" spans="2:25">
+      <c r="B11" s="34">
+        <v>8</v>
+      </c>
+      <c r="C11" s="35">
+        <v>101</v>
+      </c>
+      <c r="D11" s="35">
+        <v>8</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="35">
+        <v>2</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="35"/>
+      <c r="M11" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="35"/>
+      <c r="P11" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="35">
+        <v>1</v>
+      </c>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+    </row>
+    <row r="12" s="23" customFormat="1" spans="1:25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="34">
+        <v>9</v>
+      </c>
+      <c r="C12" s="37">
+        <v>1021</v>
+      </c>
+      <c r="D12" s="37">
+        <v>1</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="37">
+        <v>2</v>
+      </c>
+      <c r="J12" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="37"/>
+      <c r="M12" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="O12" s="37"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+    </row>
+    <row r="13" s="23" customFormat="1" spans="1:25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="34">
+        <v>10</v>
+      </c>
+      <c r="C13" s="37">
+        <v>1021</v>
+      </c>
+      <c r="D13" s="37">
+        <v>2</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="37">
+        <v>10</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="37">
+        <v>1</v>
+      </c>
+      <c r="M13" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13" s="37"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+    </row>
+    <row r="14" s="23" customFormat="1" spans="1:25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="34">
+        <v>11</v>
+      </c>
+      <c r="C14" s="37">
+        <v>1021</v>
+      </c>
+      <c r="D14" s="37">
+        <v>3</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="37">
+        <v>3</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="37">
+        <v>1</v>
+      </c>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+    </row>
+    <row r="15" s="23" customFormat="1" spans="1:25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="34">
+        <v>12</v>
+      </c>
+      <c r="C15" s="37">
+        <v>1021</v>
+      </c>
+      <c r="D15" s="37">
         <v>4</v>
       </c>
-      <c r="C7" s="31">
+      <c r="E15" s="37"/>
+      <c r="F15" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="37">
+        <v>10</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" s="37">
+        <v>1</v>
+      </c>
+      <c r="M15" s="37"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="R15" s="45"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+    </row>
+    <row r="16" s="23" customFormat="1" spans="1:25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="34">
+        <v>13</v>
+      </c>
+      <c r="C16" s="37">
+        <v>1021</v>
+      </c>
+      <c r="D16" s="37">
+        <v>5</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="37">
+        <v>10</v>
+      </c>
+      <c r="J16" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="37">
+        <v>1</v>
+      </c>
+      <c r="M16" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="31">
-        <v>4</v>
-      </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31" t="s">
+      <c r="O16" s="37"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+    </row>
+    <row r="17" s="23" customFormat="1" spans="1:25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="34">
+        <v>14</v>
+      </c>
+      <c r="C17" s="37">
+        <v>1021</v>
+      </c>
+      <c r="D17" s="37">
+        <v>6</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31">
+      <c r="G17" s="37"/>
+      <c r="H17" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="37">
+        <v>10</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="37">
         <v>1</v>
       </c>
-      <c r="J7" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" s="35"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31">
-        <v>1</v>
-      </c>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" s="21" customFormat="1" spans="2:25">
-      <c r="B8" s="31">
-        <v>5</v>
-      </c>
-      <c r="C8" s="31">
-        <v>101</v>
-      </c>
-      <c r="D8" s="31">
-        <v>5</v>
-      </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31">
-        <v>1</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31">
-        <v>1</v>
-      </c>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y8" s="37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" s="21" customFormat="1" spans="2:25">
-      <c r="B9" s="31">
-        <v>6</v>
-      </c>
-      <c r="C9" s="31">
-        <v>101</v>
-      </c>
-      <c r="D9" s="31">
-        <v>6</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31">
-        <v>1</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31">
-        <v>1</v>
-      </c>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y9" s="37" t="s">
-        <v>73</v>
-      </c>
+      <c r="M17" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17" s="37"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2480,309 +3189,309 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="10.375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="12" customWidth="1"/>
     <col min="6" max="6" width="15.125" customWidth="1"/>
     <col min="7" max="7" width="40.375" customWidth="1"/>
     <col min="8" max="8" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:8">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:8">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" s="10" customFormat="1" spans="1:8">
-      <c r="A2" s="14" t="s">
+      <c r="G1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" s="11" customFormat="1" spans="1:8">
+      <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:8">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="10" customFormat="1" spans="1:8">
+      <c r="A3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>77</v>
+      <c r="F3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:8">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="17">
         <v>1001</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="18">
         <v>0</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="16"/>
+      <c r="E4" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" ht="14.25" spans="1:8">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17">
         <v>2</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="17">
         <v>1001</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="19">
         <v>1</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="16"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" ht="14.25" spans="1:8">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17">
         <v>3</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="17">
         <v>1001</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="19">
         <v>2</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:8">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17">
+        <v>4</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1001</v>
+      </c>
+      <c r="D7" s="19">
+        <v>3</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:8">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17">
+        <v>5</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1001</v>
+      </c>
+      <c r="D8" s="19">
+        <v>4</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:8">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17">
+        <v>6</v>
+      </c>
+      <c r="C9" s="17">
+        <v>1001</v>
+      </c>
+      <c r="D9" s="19">
+        <v>5</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:8">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17">
+        <v>7</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1001</v>
+      </c>
+      <c r="D10" s="19">
+        <v>6</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" ht="13" customHeight="1" spans="1:8">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17">
+        <v>8</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1002</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:8">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17">
+        <v>9</v>
+      </c>
+      <c r="C12" s="17">
+        <v>1002</v>
+      </c>
+      <c r="D12" s="19">
+        <v>1</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:8">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17">
+        <v>10</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1002</v>
+      </c>
+      <c r="D13" s="19">
+        <v>2</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:8">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16">
-        <v>4</v>
-      </c>
-      <c r="C7" s="16">
-        <v>1001</v>
-      </c>
-      <c r="D7" s="18">
-        <v>3</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:8">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16">
-        <v>5</v>
-      </c>
-      <c r="C8" s="16">
-        <v>1001</v>
-      </c>
-      <c r="D8" s="18">
-        <v>4</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:8">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16">
-        <v>6</v>
-      </c>
-      <c r="C9" s="16">
-        <v>1001</v>
-      </c>
-      <c r="D9" s="18">
-        <v>5</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:8">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16">
-        <v>7</v>
-      </c>
-      <c r="C10" s="16">
-        <v>1001</v>
-      </c>
-      <c r="D10" s="18">
-        <v>6</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" ht="13" customHeight="1" spans="1:8">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16">
-        <v>8</v>
-      </c>
-      <c r="C11" s="16">
-        <v>1002</v>
-      </c>
-      <c r="D11" s="17">
+    </row>
+    <row r="14" ht="13" customHeight="1" spans="1:8">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17">
+        <v>11</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1003</v>
+      </c>
+      <c r="D14" s="18">
         <v>0</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:8">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16">
-        <v>9</v>
-      </c>
-      <c r="C12" s="16">
-        <v>1002</v>
-      </c>
-      <c r="D12" s="18">
-        <v>1</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:8">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16">
-        <v>10</v>
-      </c>
-      <c r="C13" s="16">
-        <v>1002</v>
-      </c>
-      <c r="D13" s="18">
-        <v>2</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" ht="13" customHeight="1" spans="1:8">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16">
-        <v>11</v>
-      </c>
-      <c r="C14" s="16">
-        <v>1003</v>
-      </c>
-      <c r="D14" s="17">
-        <v>0</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="16"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" customHeight="1"/>
   </sheetData>
@@ -2795,21 +3504,32 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.75" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="9" width="11.25" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="7.625" customWidth="1"/>
+    <col min="13" max="13" width="21.5" customWidth="1"/>
+    <col min="14" max="15" width="13.75" customWidth="1"/>
+    <col min="19" max="19" width="12.875" customWidth="1"/>
+    <col min="20" max="20" width="8.875" customWidth="1"/>
+    <col min="21" max="23" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:4">
+    <row r="1" ht="16.5" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2820,8 +3540,33 @@
       <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:4">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2830,10 +3575,35 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:4">
+        <v>122</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -2844,164 +3614,348 @@
         <v>34</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:4">
+        <v>130</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:15">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
-        <v>117</v>
+        <v>1004</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="D4" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" customFormat="1" ht="16.5" spans="1:15">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
-        <v>118</v>
+        <v>1005</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="D5" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" customFormat="1" ht="16.5" spans="1:15">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
-        <v>120</v>
+        <v>1006</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="D6" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" customFormat="1" ht="16.5" spans="1:15">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
-        <v>133</v>
+        <v>1008</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="D7" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" customFormat="1" ht="16.5" spans="1:15">
       <c r="A8" s="7"/>
       <c r="B8" s="8">
-        <v>134</v>
+        <v>1009</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="D8" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" customFormat="1" ht="16.5" spans="1:15">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
-        <v>135</v>
+        <v>1010</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="D9" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" customFormat="1" ht="16.5" spans="1:15">
       <c r="A10" s="7"/>
       <c r="B10" s="8">
-        <v>137</v>
+        <v>1011</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="D10" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" customFormat="1" ht="16.5" spans="1:15">
       <c r="A11" s="7"/>
       <c r="B11" s="8">
-        <v>140</v>
+        <v>1012</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="D11" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:15">
       <c r="A12" s="7"/>
       <c r="B12" s="8">
-        <v>142</v>
+        <v>1013</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="D12" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="1:4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8">
-        <v>143</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="8">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="1:4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8">
-        <v>144</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8">
-        <v>145</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="1:4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8">
-        <v>146</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="8">
-        <v>20</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
